--- a/stats.xlsx
+++ b/stats.xlsx
@@ -18324,32 +18324,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>52</v>
-      </c>
-      <c r="C2" s="7">
-        <f>B2-D2</f>
-        <v/>
+        <v>109</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="E2" s="7">
-        <f>B2-F2</f>
-        <v/>
+      <c r="E2" s="7" t="n">
+        <v>57</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="G2" s="7">
-        <f>B2-H2</f>
-        <v/>
+      <c r="G2" s="7" t="n">
+        <v>63</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="I2" s="7">
-        <f>B2-J2</f>
-        <v/>
+      <c r="I2" s="7" t="n">
+        <v>63</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>46</v>
@@ -18362,32 +18358,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>1501884.583333331</v>
-      </c>
-      <c r="C3" s="7">
-        <f>B3-D3</f>
-        <v/>
+        <v>1577695.833333331</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>77141.24999999977</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>1500554.583333331</v>
       </c>
-      <c r="E3" s="7">
-        <f>B3-F3</f>
-        <v/>
+      <c r="E3" s="7" t="n">
+        <v>75811.24999999977</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>1501884.583333331</v>
       </c>
-      <c r="G3" s="7">
-        <f>B3-H3</f>
-        <v/>
+      <c r="G3" s="7" t="n">
+        <v>77211.66666666674</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>1500484.166666664</v>
       </c>
-      <c r="I3" s="7">
-        <f>B3-J3</f>
-        <v/>
+      <c r="I3" s="7" t="n">
+        <v>77211.66666666674</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>1500484.166666664</v>
@@ -18400,32 +18392,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>308</v>
-      </c>
-      <c r="C4" s="7">
-        <f>B4-D4</f>
-        <v/>
+        <v>324</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>308</v>
       </c>
-      <c r="E4" s="7">
-        <f>B4-F4</f>
-        <v/>
+      <c r="E4" s="7" t="n">
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>308</v>
       </c>
-      <c r="G4" s="7">
-        <f>B4-H4</f>
-        <v/>
+      <c r="G4" s="7" t="n">
+        <v>16</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>308</v>
       </c>
-      <c r="I4" s="7">
-        <f>B4-J4</f>
-        <v/>
+      <c r="I4" s="7" t="n">
+        <v>16</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>308</v>
@@ -18438,32 +18426,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>153463</v>
-      </c>
-      <c r="C5" s="7">
-        <f>B5-D5</f>
-        <v/>
+        <v>158082</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>4619</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>153463</v>
       </c>
-      <c r="E5" s="7">
-        <f>B5-F5</f>
-        <v/>
+      <c r="E5" s="7" t="n">
+        <v>4619</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>153463</v>
       </c>
-      <c r="G5" s="7">
-        <f>B5-H5</f>
-        <v/>
+      <c r="G5" s="7" t="n">
+        <v>4619</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>153463</v>
       </c>
-      <c r="I5" s="7">
-        <f>B5-J5</f>
-        <v/>
+      <c r="I5" s="7" t="n">
+        <v>4619</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>153463</v>
@@ -18476,32 +18460,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>560744</v>
-      </c>
-      <c r="C6" s="7">
-        <f>B6-D6</f>
-        <v/>
+        <v>591157</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>30886</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>560271</v>
       </c>
-      <c r="E6" s="7">
-        <f>B6-F6</f>
-        <v/>
+      <c r="E6" s="7" t="n">
+        <v>30413</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>560744</v>
       </c>
-      <c r="G6" s="7">
-        <f>B6-H6</f>
-        <v/>
+      <c r="G6" s="7" t="n">
+        <v>30940</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>560217</v>
       </c>
-      <c r="I6" s="7">
-        <f>B6-J6</f>
-        <v/>
+      <c r="I6" s="7" t="n">
+        <v>30940</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>560217</v>
@@ -18514,32 +18494,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8527</v>
-      </c>
-      <c r="C7" s="7">
-        <f>B7-D7</f>
-        <v/>
+        <v>8746</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>222</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>8524</v>
       </c>
-      <c r="E7" s="7">
-        <f>B7-F7</f>
-        <v/>
+      <c r="E7" s="7" t="n">
+        <v>219</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>8527</v>
       </c>
-      <c r="G7" s="7">
-        <f>B7-H7</f>
-        <v/>
+      <c r="G7" s="7" t="n">
+        <v>223</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>8523</v>
       </c>
-      <c r="I7" s="7">
-        <f>B7-J7</f>
-        <v/>
+      <c r="I7" s="7" t="n">
+        <v>223</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>8523</v>
@@ -18552,32 +18528,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2132</v>
-      </c>
-      <c r="C8" s="7">
-        <f>B8-D8</f>
-        <v/>
+        <v>2186</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>55</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>2131</v>
       </c>
-      <c r="E8" s="7">
-        <f>B8-F8</f>
-        <v/>
+      <c r="E8" s="7" t="n">
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>2132</v>
       </c>
-      <c r="G8" s="7">
-        <f>B8-H8</f>
-        <v/>
+      <c r="G8" s="7" t="n">
+        <v>56</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>2130</v>
       </c>
-      <c r="I8" s="7">
-        <f>B8-J8</f>
-        <v/>
+      <c r="I8" s="7" t="n">
+        <v>56</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>2130</v>
@@ -18590,32 +18562,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17475</v>
-      </c>
-      <c r="C9" s="7">
-        <f>B9-D9</f>
-        <v/>
+        <v>18418</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>960</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>17458</v>
       </c>
-      <c r="E9" s="7">
-        <f>B9-F9</f>
-        <v/>
+      <c r="E9" s="7" t="n">
+        <v>943</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>17475</v>
       </c>
-      <c r="G9" s="7">
-        <f>B9-H9</f>
-        <v/>
+      <c r="G9" s="7" t="n">
+        <v>961</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>17457</v>
       </c>
-      <c r="I9" s="7">
-        <f>B9-J9</f>
-        <v/>
+      <c r="I9" s="7" t="n">
+        <v>961</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>17457</v>
@@ -18628,32 +18596,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5983</v>
-      </c>
-      <c r="C10" s="7">
-        <f>B10-D10</f>
-        <v/>
+        <v>6113</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>131</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>5982</v>
       </c>
-      <c r="E10" s="7">
-        <f>B10-F10</f>
-        <v/>
+      <c r="E10" s="7" t="n">
+        <v>130</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>5983</v>
       </c>
-      <c r="G10" s="7">
-        <f>B10-H10</f>
-        <v/>
+      <c r="G10" s="7" t="n">
+        <v>132</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>5981</v>
       </c>
-      <c r="I10" s="7">
-        <f>B10-J10</f>
-        <v/>
+      <c r="I10" s="7" t="n">
+        <v>132</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>5981</v>
@@ -18666,32 +18630,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>218302</v>
-      </c>
-      <c r="C11" s="7">
-        <f>B11-D11</f>
-        <v/>
+        <v>228728</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>10603</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>218125</v>
       </c>
-      <c r="E11" s="7">
-        <f>B11-F11</f>
-        <v/>
+      <c r="E11" s="7" t="n">
+        <v>10426</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>218302</v>
       </c>
-      <c r="G11" s="7">
-        <f>B11-H11</f>
-        <v/>
+      <c r="G11" s="7" t="n">
+        <v>10623</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>218105</v>
       </c>
-      <c r="I11" s="7">
-        <f>B11-J11</f>
-        <v/>
+      <c r="I11" s="7" t="n">
+        <v>10623</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>218105</v>
@@ -18704,32 +18664,28 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>152</v>
-      </c>
-      <c r="C12" s="7">
-        <f>B12-D12</f>
-        <v/>
+        <v>153</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>152</v>
       </c>
-      <c r="E12" s="7">
-        <f>B12-F12</f>
-        <v/>
+      <c r="E12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>152</v>
       </c>
-      <c r="G12" s="7">
-        <f>B12-H12</f>
-        <v/>
+      <c r="G12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>152</v>
       </c>
-      <c r="I12" s="7">
-        <f>B12-J12</f>
-        <v/>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>152</v>
@@ -18742,32 +18698,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>6060</v>
-      </c>
-      <c r="C13" s="7">
-        <f>B13-D13</f>
-        <v/>
+        <v>6222</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>164</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>6058</v>
       </c>
-      <c r="E13" s="7">
-        <f>B13-F13</f>
-        <v/>
+      <c r="E13" s="7" t="n">
+        <v>162</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>6060</v>
       </c>
-      <c r="G13" s="7">
-        <f>B13-H13</f>
-        <v/>
+      <c r="G13" s="7" t="n">
+        <v>164</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>6058</v>
       </c>
-      <c r="I13" s="7">
-        <f>B13-J13</f>
-        <v/>
+      <c r="I13" s="7" t="n">
+        <v>164</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>6058</v>
@@ -18780,32 +18732,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>11473</v>
-      </c>
-      <c r="C14" s="7">
-        <f>B14-D14</f>
-        <v/>
+        <v>12281</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>824</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>11457</v>
       </c>
-      <c r="E14" s="7">
-        <f>B14-F14</f>
-        <v/>
+      <c r="E14" s="7" t="n">
+        <v>808</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>11473</v>
       </c>
-      <c r="G14" s="7">
-        <f>B14-H14</f>
-        <v/>
+      <c r="G14" s="7" t="n">
+        <v>824</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>11457</v>
       </c>
-      <c r="I14" s="7">
-        <f>B14-J14</f>
-        <v/>
+      <c r="I14" s="7" t="n">
+        <v>824</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>11457</v>
@@ -18818,32 +18766,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>25948</v>
-      </c>
-      <c r="C15" s="7">
-        <f>B15-D15</f>
-        <v/>
+        <v>27473</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>1552</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>25921</v>
       </c>
-      <c r="E15" s="7">
-        <f>B15-F15</f>
-        <v/>
+      <c r="E15" s="7" t="n">
+        <v>1525</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>25948</v>
       </c>
-      <c r="G15" s="7">
-        <f>B15-H15</f>
-        <v/>
+      <c r="G15" s="7" t="n">
+        <v>1553</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>25920</v>
       </c>
-      <c r="I15" s="7">
-        <f>B15-J15</f>
-        <v/>
+      <c r="I15" s="7" t="n">
+        <v>1553</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>25920</v>
@@ -18856,32 +18800,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>17986</v>
-      </c>
-      <c r="C16" s="7">
-        <f>B16-D16</f>
-        <v/>
+        <v>18980</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>1012</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>17968</v>
       </c>
-      <c r="E16" s="7">
-        <f>B16-F16</f>
-        <v/>
+      <c r="E16" s="7" t="n">
+        <v>994</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>17986</v>
       </c>
-      <c r="G16" s="7">
-        <f>B16-H16</f>
-        <v/>
+      <c r="G16" s="7" t="n">
+        <v>1013</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>17967</v>
       </c>
-      <c r="I16" s="7">
-        <f>B16-J16</f>
-        <v/>
+      <c r="I16" s="7" t="n">
+        <v>1013</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>17967</v>
@@ -18894,32 +18834,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1820</v>
-      </c>
-      <c r="C17" s="7">
-        <f>B17-D17</f>
-        <v/>
+        <v>1923</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>104</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1819</v>
       </c>
-      <c r="E17" s="7">
-        <f>B17-F17</f>
-        <v/>
+      <c r="E17" s="7" t="n">
+        <v>103</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>1820</v>
       </c>
-      <c r="G17" s="7">
-        <f>B17-H17</f>
-        <v/>
+      <c r="G17" s="7" t="n">
+        <v>104</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>1819</v>
       </c>
-      <c r="I17" s="7">
-        <f>B17-J17</f>
-        <v/>
+      <c r="I17" s="7" t="n">
+        <v>104</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>1819</v>
@@ -18932,32 +18868,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>6848</v>
-      </c>
-      <c r="C18" s="7">
-        <f>B18-D18</f>
-        <v/>
+        <v>7287</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>446</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>6841</v>
       </c>
-      <c r="E18" s="7">
-        <f>B18-F18</f>
-        <v/>
+      <c r="E18" s="7" t="n">
+        <v>439</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>6848</v>
       </c>
-      <c r="G18" s="7">
-        <f>B18-H18</f>
-        <v/>
+      <c r="G18" s="7" t="n">
+        <v>446</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>6841</v>
       </c>
-      <c r="I18" s="7">
-        <f>B18-J18</f>
-        <v/>
+      <c r="I18" s="7" t="n">
+        <v>446</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>6841</v>
@@ -18970,32 +18902,28 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>97</v>
-      </c>
-      <c r="C19" s="7">
-        <f>B19-D19</f>
-        <v/>
+        <v>105</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="E19" s="7">
-        <f>B19-F19</f>
-        <v/>
+      <c r="E19" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="G19" s="7">
-        <f>B19-H19</f>
-        <v/>
+      <c r="G19" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="I19" s="7">
-        <f>B19-J19</f>
-        <v/>
+      <c r="I19" s="7" t="n">
+        <v>8</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>97</v>
@@ -19008,32 +18936,28 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="C20" s="7">
-        <f>B20-D20</f>
-        <v/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="E20" s="7">
-        <f>B20-F20</f>
-        <v/>
+      <c r="E20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="G20" s="7">
-        <f>B20-H20</f>
-        <v/>
+      <c r="G20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="I20" s="7">
-        <f>B20-J20</f>
-        <v/>
+      <c r="I20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>60</v>
@@ -19046,32 +18970,28 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>880</v>
-      </c>
-      <c r="C21" s="7">
-        <f>B21-D21</f>
-        <v/>
+        <v>964</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>86</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>878</v>
       </c>
-      <c r="E21" s="7">
-        <f>B21-F21</f>
-        <v/>
+      <c r="E21" s="7" t="n">
+        <v>84</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>880</v>
       </c>
-      <c r="G21" s="7">
-        <f>B21-H21</f>
-        <v/>
+      <c r="G21" s="7" t="n">
+        <v>86</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>878</v>
       </c>
-      <c r="I21" s="7">
-        <f>B21-J21</f>
-        <v/>
+      <c r="I21" s="7" t="n">
+        <v>86</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>878</v>
@@ -19084,32 +19004,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>1745493</v>
-      </c>
-      <c r="C22" s="7">
-        <f>B22-D22</f>
-        <v/>
+        <v>1837284</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>93363</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1743921</v>
       </c>
-      <c r="E22" s="7">
-        <f>B22-F22</f>
-        <v/>
+      <c r="E22" s="7" t="n">
+        <v>91791</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>1745493</v>
       </c>
-      <c r="G22" s="7">
-        <f>B22-H22</f>
-        <v/>
+      <c r="G22" s="7" t="n">
+        <v>93532</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>1743752</v>
       </c>
-      <c r="I22" s="7">
-        <f>B22-J22</f>
-        <v/>
+      <c r="I22" s="7" t="n">
+        <v>93532</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>1743752</v>
@@ -19205,32 +19121,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7">
-        <f>B2-D2</f>
-        <v/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="7">
-        <f>B2-F2</f>
-        <v/>
+      <c r="E2" s="7" t="n">
+        <v>39</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="7">
-        <f>B2-H2</f>
-        <v/>
+      <c r="G2" s="7" t="n">
+        <v>39</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I2" s="7">
-        <f>B2-J2</f>
-        <v/>
+      <c r="I2" s="7" t="n">
+        <v>39</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>10</v>
@@ -19243,32 +19155,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>573114.1666666658</v>
-      </c>
-      <c r="C3" s="7">
-        <f>B3-D3</f>
-        <v/>
+        <v>588488.7499999991</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>15374.58333333326</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>573114.1666666658</v>
       </c>
-      <c r="E3" s="7">
-        <f>B3-F3</f>
-        <v/>
+      <c r="E3" s="7" t="n">
+        <v>15374.58333333326</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>573114.1666666658</v>
       </c>
-      <c r="G3" s="7">
-        <f>B3-H3</f>
-        <v/>
+      <c r="G3" s="7" t="n">
+        <v>15374.58333333326</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>573114.1666666658</v>
       </c>
-      <c r="I3" s="7">
-        <f>B3-J3</f>
-        <v/>
+      <c r="I3" s="7" t="n">
+        <v>15374.58333333326</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>573114.1666666658</v>
@@ -19281,32 +19189,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>119</v>
-      </c>
-      <c r="C4" s="7">
-        <f>B4-D4</f>
-        <v/>
+        <v>122</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>119</v>
       </c>
-      <c r="E4" s="7">
-        <f>B4-F4</f>
-        <v/>
+      <c r="E4" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>119</v>
       </c>
-      <c r="G4" s="7">
-        <f>B4-H4</f>
-        <v/>
+      <c r="G4" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>119</v>
       </c>
-      <c r="I4" s="7">
-        <f>B4-J4</f>
-        <v/>
+      <c r="I4" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>119</v>
@@ -19319,32 +19223,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>139000</v>
-      </c>
-      <c r="C5" s="7">
-        <f>B5-D5</f>
-        <v/>
+        <v>141282</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>2282</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>139000</v>
       </c>
-      <c r="E5" s="7">
-        <f>B5-F5</f>
-        <v/>
+      <c r="E5" s="7" t="n">
+        <v>2282</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>139000</v>
       </c>
-      <c r="G5" s="7">
-        <f>B5-H5</f>
-        <v/>
+      <c r="G5" s="7" t="n">
+        <v>2282</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>139000</v>
       </c>
-      <c r="I5" s="7">
-        <f>B5-J5</f>
-        <v/>
+      <c r="I5" s="7" t="n">
+        <v>2282</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>139000</v>
@@ -19357,32 +19257,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>98225</v>
-      </c>
-      <c r="C6" s="7">
-        <f>B6-D6</f>
-        <v/>
+        <v>100793</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>2568</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>98225</v>
       </c>
-      <c r="E6" s="7">
-        <f>B6-F6</f>
-        <v/>
+      <c r="E6" s="7" t="n">
+        <v>2568</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>98225</v>
       </c>
-      <c r="G6" s="7">
-        <f>B6-H6</f>
-        <v/>
+      <c r="G6" s="7" t="n">
+        <v>2568</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>98225</v>
       </c>
-      <c r="I6" s="7">
-        <f>B6-J6</f>
-        <v/>
+      <c r="I6" s="7" t="n">
+        <v>2568</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>98225</v>
@@ -19395,32 +19291,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3440</v>
-      </c>
-      <c r="C7" s="7">
-        <f>B7-D7</f>
-        <v/>
+        <v>3530</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>90</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3440</v>
       </c>
-      <c r="E7" s="7">
-        <f>B7-F7</f>
-        <v/>
+      <c r="E7" s="7" t="n">
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>3440</v>
       </c>
-      <c r="G7" s="7">
-        <f>B7-H7</f>
-        <v/>
+      <c r="G7" s="7" t="n">
+        <v>90</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>3440</v>
       </c>
-      <c r="I7" s="7">
-        <f>B7-J7</f>
-        <v/>
+      <c r="I7" s="7" t="n">
+        <v>90</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>3440</v>
@@ -19433,32 +19325,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>798</v>
-      </c>
-      <c r="C8" s="7">
-        <f>B8-D8</f>
-        <v/>
+        <v>818</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>798</v>
       </c>
-      <c r="E8" s="7">
-        <f>B8-F8</f>
-        <v/>
+      <c r="E8" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>798</v>
       </c>
-      <c r="G8" s="7">
-        <f>B8-H8</f>
-        <v/>
+      <c r="G8" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>798</v>
       </c>
-      <c r="I8" s="7">
-        <f>B8-J8</f>
-        <v/>
+      <c r="I8" s="7" t="n">
+        <v>20</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>798</v>
@@ -19471,32 +19359,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5774</v>
-      </c>
-      <c r="C9" s="7">
-        <f>B9-D9</f>
-        <v/>
+        <v>5932</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>158</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>5774</v>
       </c>
-      <c r="E9" s="7">
-        <f>B9-F9</f>
-        <v/>
+      <c r="E9" s="7" t="n">
+        <v>158</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>5774</v>
       </c>
-      <c r="G9" s="7">
-        <f>B9-H9</f>
-        <v/>
+      <c r="G9" s="7" t="n">
+        <v>158</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>5774</v>
       </c>
-      <c r="I9" s="7">
-        <f>B9-J9</f>
-        <v/>
+      <c r="I9" s="7" t="n">
+        <v>158</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>5774</v>
@@ -19509,32 +19393,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1999</v>
-      </c>
-      <c r="C10" s="7">
-        <f>B10-D10</f>
-        <v/>
+        <v>2023</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1999</v>
       </c>
-      <c r="E10" s="7">
-        <f>B10-F10</f>
-        <v/>
+      <c r="E10" s="7" t="n">
+        <v>24</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>1999</v>
       </c>
-      <c r="G10" s="7">
-        <f>B10-H10</f>
-        <v/>
+      <c r="G10" s="7" t="n">
+        <v>24</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>1999</v>
       </c>
-      <c r="I10" s="7">
-        <f>B10-J10</f>
-        <v/>
+      <c r="I10" s="7" t="n">
+        <v>24</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1999</v>
@@ -19547,32 +19427,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>55247</v>
-      </c>
-      <c r="C11" s="7">
-        <f>B11-D11</f>
-        <v/>
+        <v>56330</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>1083</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>55247</v>
       </c>
-      <c r="E11" s="7">
-        <f>B11-F11</f>
-        <v/>
+      <c r="E11" s="7" t="n">
+        <v>1083</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>55247</v>
       </c>
-      <c r="G11" s="7">
-        <f>B11-H11</f>
-        <v/>
+      <c r="G11" s="7" t="n">
+        <v>1083</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>55247</v>
       </c>
-      <c r="I11" s="7">
-        <f>B11-J11</f>
-        <v/>
+      <c r="I11" s="7" t="n">
+        <v>1083</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>55247</v>
@@ -19585,32 +19461,28 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>52</v>
-      </c>
-      <c r="C12" s="7">
-        <f>B12-D12</f>
-        <v/>
+        <v>53</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="E12" s="7">
-        <f>B12-F12</f>
-        <v/>
+      <c r="E12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="G12" s="7">
-        <f>B12-H12</f>
-        <v/>
+      <c r="G12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="I12" s="7">
-        <f>B12-J12</f>
-        <v/>
+      <c r="I12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>52</v>
@@ -19623,32 +19495,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>2519</v>
-      </c>
-      <c r="C13" s="7">
-        <f>B13-D13</f>
-        <v/>
+        <v>2585</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>66</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>2519</v>
       </c>
-      <c r="E13" s="7">
-        <f>B13-F13</f>
-        <v/>
+      <c r="E13" s="7" t="n">
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>2519</v>
       </c>
-      <c r="G13" s="7">
-        <f>B13-H13</f>
-        <v/>
+      <c r="G13" s="7" t="n">
+        <v>66</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>2519</v>
       </c>
-      <c r="I13" s="7">
-        <f>B13-J13</f>
-        <v/>
+      <c r="I13" s="7" t="n">
+        <v>66</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>2519</v>
@@ -19661,32 +19529,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>3771</v>
-      </c>
-      <c r="C14" s="7">
-        <f>B14-D14</f>
-        <v/>
+        <v>3904</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>133</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>3771</v>
       </c>
-      <c r="E14" s="7">
-        <f>B14-F14</f>
-        <v/>
+      <c r="E14" s="7" t="n">
+        <v>133</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>3771</v>
       </c>
-      <c r="G14" s="7">
-        <f>B14-H14</f>
-        <v/>
+      <c r="G14" s="7" t="n">
+        <v>133</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>3771</v>
       </c>
-      <c r="I14" s="7">
-        <f>B14-J14</f>
-        <v/>
+      <c r="I14" s="7" t="n">
+        <v>133</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>3771</v>
@@ -19699,32 +19563,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>4099</v>
-      </c>
-      <c r="C15" s="7">
-        <f>B15-D15</f>
-        <v/>
+        <v>4207</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>108</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>4099</v>
       </c>
-      <c r="E15" s="7">
-        <f>B15-F15</f>
-        <v/>
+      <c r="E15" s="7" t="n">
+        <v>108</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>4099</v>
       </c>
-      <c r="G15" s="7">
-        <f>B15-H15</f>
-        <v/>
+      <c r="G15" s="7" t="n">
+        <v>108</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>4099</v>
       </c>
-      <c r="I15" s="7">
-        <f>B15-J15</f>
-        <v/>
+      <c r="I15" s="7" t="n">
+        <v>108</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>4099</v>
@@ -19737,32 +19597,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2697</v>
-      </c>
-      <c r="C16" s="7">
-        <f>B16-D16</f>
-        <v/>
+        <v>2759</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>62</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>2697</v>
       </c>
-      <c r="E16" s="7">
-        <f>B16-F16</f>
-        <v/>
+      <c r="E16" s="7" t="n">
+        <v>62</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>2697</v>
       </c>
-      <c r="G16" s="7">
-        <f>B16-H16</f>
-        <v/>
+      <c r="G16" s="7" t="n">
+        <v>62</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>2697</v>
       </c>
-      <c r="I16" s="7">
-        <f>B16-J16</f>
-        <v/>
+      <c r="I16" s="7" t="n">
+        <v>62</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>2697</v>
@@ -19775,32 +19631,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1522</v>
-      </c>
-      <c r="C17" s="7">
-        <f>B17-D17</f>
-        <v/>
+        <v>1526</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1522</v>
       </c>
-      <c r="E17" s="7">
-        <f>B17-F17</f>
-        <v/>
+      <c r="E17" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>1522</v>
       </c>
-      <c r="G17" s="7">
-        <f>B17-H17</f>
-        <v/>
+      <c r="G17" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>1522</v>
       </c>
-      <c r="I17" s="7">
-        <f>B17-J17</f>
-        <v/>
+      <c r="I17" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>1522</v>
@@ -19813,32 +19665,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1312</v>
-      </c>
-      <c r="C18" s="7">
-        <f>B18-D18</f>
-        <v/>
+        <v>1356</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>1312</v>
       </c>
-      <c r="E18" s="7">
-        <f>B18-F18</f>
-        <v/>
+      <c r="E18" s="7" t="n">
+        <v>44</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>1312</v>
       </c>
-      <c r="G18" s="7">
-        <f>B18-H18</f>
-        <v/>
+      <c r="G18" s="7" t="n">
+        <v>44</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>1312</v>
       </c>
-      <c r="I18" s="7">
-        <f>B18-J18</f>
-        <v/>
+      <c r="I18" s="7" t="n">
+        <v>44</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>1312</v>
@@ -19853,30 +19701,26 @@
       <c r="B19" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="7">
-        <f>B19-D19</f>
-        <v/>
+      <c r="C19" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="7">
-        <f>B19-F19</f>
-        <v/>
+      <c r="E19" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="G19" s="7">
-        <f>B19-H19</f>
-        <v/>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="I19" s="7">
-        <f>B19-J19</f>
-        <v/>
+      <c r="I19" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>11</v>
@@ -19891,30 +19735,26 @@
       <c r="B20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
-        <f>B20-D20</f>
-        <v/>
+      <c r="C20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E20" s="7">
-        <f>B20-F20</f>
-        <v/>
+      <c r="E20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G20" s="7">
-        <f>B20-H20</f>
-        <v/>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="I20" s="7">
-        <f>B20-J20</f>
-        <v/>
+      <c r="I20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>9</v>
@@ -19927,32 +19767,28 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="C21" s="7">
-        <f>B21-D21</f>
-        <v/>
+        <v>81</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="E21" s="7">
-        <f>B21-F21</f>
-        <v/>
+      <c r="E21" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="G21" s="7">
-        <f>B21-H21</f>
-        <v/>
+      <c r="G21" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="I21" s="7">
-        <f>B21-J21</f>
-        <v/>
+      <c r="I21" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>79</v>
@@ -19965,32 +19801,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>607159</v>
-      </c>
-      <c r="C22" s="7">
-        <f>B22-D22</f>
-        <v/>
+        <v>622398</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>15239</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>607159</v>
       </c>
-      <c r="E22" s="7">
-        <f>B22-F22</f>
-        <v/>
+      <c r="E22" s="7" t="n">
+        <v>15239</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>607159</v>
       </c>
-      <c r="G22" s="7">
-        <f>B22-H22</f>
-        <v/>
+      <c r="G22" s="7" t="n">
+        <v>15239</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>607159</v>
       </c>
-      <c r="I22" s="7">
-        <f>B22-J22</f>
-        <v/>
+      <c r="I22" s="7" t="n">
+        <v>15239</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>607159</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -22463,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>8759</v>
+        <v>8761</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>257</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>6117</v>
+        <v>6119</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>150</v>
@@ -22735,7 +22735,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>27624</v>
+        <v>27631</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1857</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -49,6 +49,7 @@
     <sheet name="Hiiiii" sheetId="41" state="visible" r:id="rId41"/>
     <sheet name="pogdvde" sheetId="42" state="visible" r:id="rId42"/>
     <sheet name="CJHong" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="TimmieJimmie" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1403,28 +1404,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>2</v>
@@ -1437,28 +1438,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>223168.7499999998</v>
+        <v>220373.3333333331</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6952.916666666599</v>
+        <v>4157.499999999884</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>216215.8333333332</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5341.249999999884</v>
+        <v>2545.833333333168</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>217827.4999999999</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>21242.4999999998</v>
+        <v>18447.08333333308</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>201926.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6952.916666666599</v>
+        <v>4157.499999999884</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>216215.8333333332</v>
@@ -1505,28 +1506,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1820</v>
+        <v>1640</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1490</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>1520</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1320</v>
+        <v>1140</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>500</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1490</v>
@@ -1539,28 +1540,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>65430</v>
+        <v>64502</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2238</v>
+        <v>1310</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>63192</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1773</v>
+        <v>845</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>63657</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6253</v>
+        <v>5325</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>59177</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2238</v>
+        <v>1310</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>63192</v>
@@ -1573,28 +1574,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1836</v>
+        <v>1816</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1717</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>1804</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>1740</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>1717</v>
@@ -1607,28 +1608,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>591</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>591</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>568</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>591</v>
@@ -1641,28 +1642,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3326</v>
+        <v>3288</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>3231</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>3252</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>3041</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>3231</v>
@@ -1675,28 +1676,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1476</v>
+        <v>1460</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1390</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>1451</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>1404</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1390</v>
@@ -1709,28 +1710,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>41123</v>
+        <v>40606</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>1192</v>
+        <v>675</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>39931</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>947</v>
+        <v>430</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>40176</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>3495</v>
+        <v>2978</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>37628</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1192</v>
+        <v>675</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>39931</v>
@@ -1777,28 +1778,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1141</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>1143</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>1103</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>1141</v>
@@ -1811,28 +1812,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1849</v>
+        <v>1827</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1557</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>1800</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>1636</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>1557</v>
@@ -1845,28 +1846,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2626</v>
+        <v>2581</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>2278</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>2549</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>2351</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>2278</v>
@@ -1879,28 +1880,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1944</v>
+        <v>1910</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1879</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1890</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>1745</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>1879</v>
@@ -1913,28 +1914,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1422</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>1431</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>1322</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>1422</v>
@@ -1947,28 +1948,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>577</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>585</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>537</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>577</v>
@@ -2015,28 +2016,28 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>13</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>13</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>13</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>13</v>
@@ -2049,28 +2050,28 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>70</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>70</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>65</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>70</v>
@@ -2083,28 +2084,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>344037</v>
+        <v>339836</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>9907</v>
+        <v>5706</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>334130</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>7803</v>
+        <v>3602</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>336234</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>30066</v>
+        <v>25865</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>313971</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>9907</v>
+        <v>5706</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>334130</v>
@@ -10204,28 +10205,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>995632.0833333309</v>
+        <v>995026.6666666643</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>48694.5833333336</v>
+        <v>48089.16666666698</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>946937.4999999973</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15581.25000000023</v>
+        <v>14975.8333333336</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>980050.8333333307</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>86404.99999999988</v>
+        <v>85799.58333333326</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>909227.083333331</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>48694.5833333336</v>
+        <v>48089.16666666698</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>946937.4999999973</v>
@@ -10306,28 +10307,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>230496</v>
+        <v>230346</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12367</v>
+        <v>12217</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>218129</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4810</v>
+        <v>4660</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>225686</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>21567</v>
+        <v>21417</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>208929</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>12367</v>
+        <v>12217</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>218129</v>
@@ -10340,28 +10341,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>3100</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>3143</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>3031</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>3100</v>
@@ -10408,28 +10409,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>10130</v>
+        <v>10123</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>9602</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>9951</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>9160</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>9602</v>
@@ -10476,28 +10477,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>114588</v>
+        <v>114527</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5023</v>
+        <v>4962</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>109565</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1892</v>
+        <v>1831</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>112696</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>8931</v>
+        <v>8870</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>105657</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>5023</v>
+        <v>4962</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>109565</v>
@@ -10544,28 +10545,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>2238</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>2268</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>2189</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>2238</v>
@@ -10578,28 +10579,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>7948</v>
+        <v>7941</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>7455</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>7778</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>7055</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>7455</v>
@@ -10612,28 +10613,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>11078</v>
+        <v>11070</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>10426</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>10811</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>9940</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>10426</v>
@@ -10680,28 +10681,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>4350</v>
+        <v>4345</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>3994</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>4173</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>3817</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>3994</v>
@@ -10714,28 +10715,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>4365</v>
+        <v>4357</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>4030</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>4226</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>3806</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>4030</v>
@@ -10850,28 +10851,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>1105739</v>
+        <v>1104958</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>49967</v>
+        <v>49186</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1055772</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>17703</v>
+        <v>16922</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>1088036</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>91644</v>
+        <v>90863</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>1014095</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>49967</v>
+        <v>49186</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>1055772</v>
@@ -14986,28 +14987,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>2197840.833333338</v>
+        <v>2197790.000000005</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>1039.583333333023</v>
+        <v>988.7499999995343</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>2196801.250000005</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>1039.583333333023</v>
+        <v>988.7499999995343</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>2196801.250000005</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>1039.583333333023</v>
+        <v>988.7499999995343</v>
       </c>
       <c r="H3" s="7" t="n">
         <v>2196801.250000005</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>1039.583333333023</v>
+        <v>988.7499999995343</v>
       </c>
       <c r="J3" s="7" t="n">
         <v>2196801.250000005</v>
@@ -15088,28 +15089,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>590737</v>
+        <v>590714</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>590488</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>590488</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>590488</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="J6" s="7" t="n">
         <v>590488</v>
@@ -15122,28 +15123,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>9192</v>
+        <v>9190</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>9187</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7" t="n">
         <v>9187</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>9187</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="7" t="n">
         <v>9187</v>
@@ -15190,28 +15191,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>22562</v>
+        <v>22560</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>22551</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>22551</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>22551</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="7" t="n">
         <v>22551</v>
@@ -15224,28 +15225,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6797</v>
+        <v>6795</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>6792</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>6792</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" s="7" t="n">
         <v>6792</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="7" t="n">
         <v>6792</v>
@@ -15258,28 +15259,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>286390</v>
+        <v>286383</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>286282</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>286282</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H11" s="7" t="n">
         <v>286282</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J11" s="7" t="n">
         <v>286282</v>
@@ -15326,28 +15327,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>7286</v>
+        <v>7284</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>7282</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="7" t="n">
         <v>7282</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="7" t="n">
         <v>7282</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>7282</v>
@@ -15632,28 +15633,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>2519615</v>
+        <v>2519493</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1055</v>
+        <v>933</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>2518560</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>1055</v>
+        <v>933</v>
       </c>
       <c r="F22" s="7" t="n">
         <v>2518560</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>1055</v>
+        <v>933</v>
       </c>
       <c r="H22" s="7" t="n">
         <v>2518560</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>1055</v>
+        <v>933</v>
       </c>
       <c r="J22" s="7" t="n">
         <v>2518560</v>
@@ -18811,26 +18812,26 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>44</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="7" t="n"/>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>44</v>
@@ -18843,26 +18844,26 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>891106.2499999983</v>
+        <v>891647.0833333316</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>93.33333333325572</v>
+        <v>634.1666666666279</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>891012.916666665</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>540.8333333333721</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>891106.2499999983</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>891106.2499999983</v>
+        <v>891647.0833333316</v>
       </c>
       <c r="H3" s="7" t="n"/>
       <c r="I3" s="4" t="n">
-        <v>93.33333333325572</v>
+        <v>634.1666666666279</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>891012.916666665</v>
@@ -18907,26 +18908,26 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>74596</v>
+        <v>74626</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>74536</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>74596</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>74596</v>
+        <v>74626</v>
       </c>
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>74536</v>
@@ -18939,26 +18940,26 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>220945</v>
+        <v>220996</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>220909</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>220945</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>220945</v>
+        <v>220996</v>
       </c>
       <c r="H6" s="7" t="n"/>
       <c r="I6" s="4" t="n">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>220909</v>
@@ -18971,26 +18972,26 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5098</v>
+        <v>5100</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>5096</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>5098</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5098</v>
+        <v>5100</v>
       </c>
       <c r="H7" s="7" t="n"/>
       <c r="I7" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>5096</v>
@@ -19035,26 +19036,26 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9296</v>
+        <v>9298</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>9294</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>9296</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9296</v>
+        <v>9298</v>
       </c>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>9294</v>
@@ -19099,26 +19100,26 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>100692</v>
+        <v>100709</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>100678</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>100692</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>100692</v>
+        <v>100709</v>
       </c>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="4" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>100678</v>
@@ -19163,26 +19164,26 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>3862</v>
+        <v>3864</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>3860</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>3862</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>3862</v>
+        <v>3864</v>
       </c>
       <c r="H13" s="7" t="n"/>
       <c r="I13" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>3860</v>
@@ -19195,26 +19196,26 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>6371</v>
+        <v>6373</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>6371</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>6371</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>6371</v>
+        <v>6373</v>
       </c>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>6371</v>
@@ -19227,26 +19228,26 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>9047</v>
+        <v>9049</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>9045</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>9047</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>9047</v>
+        <v>9049</v>
       </c>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>9045</v>
@@ -19259,26 +19260,26 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>5843</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>5845</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>5845</v>
+        <v>5846</v>
       </c>
       <c r="H16" s="7" t="n"/>
       <c r="I16" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>5843</v>
@@ -19291,26 +19292,26 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>2686</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>2686</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>2686</v>
@@ -19323,26 +19324,26 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>2848</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>2848</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="H18" s="7" t="n"/>
       <c r="I18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>2848</v>
@@ -19451,26 +19452,26 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>931143</v>
+        <v>931301</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>930967</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>931143</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>931143</v>
+        <v>931301</v>
       </c>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="4" t="n">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>930967</v>
@@ -19566,26 +19567,26 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-13</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>56</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="H2" s="7" t="n"/>
       <c r="I2" s="4" t="n">
-        <v>-13</v>
+        <v>42</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>56</v>
@@ -19598,26 +19599,26 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>4588490.416666646</v>
+        <v>4587651.666666646</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>52390.41666666605</v>
+        <v>51551.66666666605</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>4536099.99999998</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11887.49999999814</v>
+        <v>11048.74999999814</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>4576602.916666648</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>4588490.416666646</v>
+        <v>4587651.666666646</v>
       </c>
       <c r="H3" s="7" t="n"/>
       <c r="I3" s="4" t="n">
-        <v>52390.41666666605</v>
+        <v>51551.66666666605</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>4536099.99999998</v>
@@ -19662,26 +19663,26 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>111350</v>
+        <v>110248</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5168</v>
+        <v>4066</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>106182</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1102</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>110248</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>111350</v>
+        <v>110248</v>
       </c>
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="4" t="n">
-        <v>5168</v>
+        <v>4066</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>106182</v>
@@ -20206,26 +20207,26 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>4721004</v>
+        <v>4720491</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>56425</v>
+        <v>55912</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>4664579</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>11430</v>
+        <v>10917</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>4709574</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>4721004</v>
+        <v>4720491</v>
       </c>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="4" t="n">
-        <v>56425</v>
+        <v>55912</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>4664579</v>
@@ -21076,26 +21077,26 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H2" s="7" t="n"/>
       <c r="I2" s="4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>2</v>
@@ -21108,26 +21109,26 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>292095.8333333334</v>
+        <v>290302.9166666666</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>27136.66666666669</v>
+        <v>25343.74999999994</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>264959.1666666667</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5000.416666666744</v>
+        <v>3207.5</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>287095.4166666666</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>292095.8333333334</v>
+        <v>290302.9166666666</v>
       </c>
       <c r="H3" s="7" t="n"/>
       <c r="I3" s="4" t="n">
-        <v>27136.66666666669</v>
+        <v>25343.74999999994</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>264959.1666666667</v>
@@ -21172,26 +21173,26 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23440</v>
+        <v>23230</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3390</v>
+        <v>3180</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>20050</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>23120</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>23440</v>
+        <v>23230</v>
       </c>
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="4" t="n">
-        <v>3390</v>
+        <v>3180</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>20050</v>
@@ -21204,26 +21205,26 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>90296</v>
+        <v>89401</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9278</v>
+        <v>8383</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>81018</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2171</v>
+        <v>1276</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>88125</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>90296</v>
+        <v>89401</v>
       </c>
       <c r="H6" s="7" t="n"/>
       <c r="I6" s="4" t="n">
-        <v>9278</v>
+        <v>8383</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>81018</v>
@@ -21236,26 +21237,26 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1782</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>1875</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="H7" s="7" t="n"/>
       <c r="I7" s="4" t="n">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>1782</v>
@@ -21268,26 +21269,26 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>479</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>495</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>479</v>
@@ -21300,26 +21301,26 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3176</v>
+        <v>3155</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>2883</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>3110</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>3176</v>
+        <v>3155</v>
       </c>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="4" t="n">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>2883</v>
@@ -21332,26 +21333,26 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1314</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>1367</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="4" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1314</v>
@@ -21364,26 +21365,26 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>43496</v>
+        <v>43102</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>4143</v>
+        <v>3749</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>39353</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>953</v>
+        <v>559</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>42543</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>43496</v>
+        <v>43102</v>
       </c>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="4" t="n">
-        <v>4143</v>
+        <v>3749</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>39353</v>
@@ -21396,26 +21397,26 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>31</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>34</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7" t="n"/>
       <c r="I12" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>31</v>
@@ -21428,26 +21429,26 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1230</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>1299</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="H13" s="7" t="n"/>
       <c r="I13" s="4" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>1230</v>
@@ -21460,26 +21461,26 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1562</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>1735</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>1776</v>
+        <v>1763</v>
       </c>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="4" t="n">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>1562</v>
@@ -21492,26 +21493,26 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>3715</v>
+        <v>3669</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>3303</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>3611</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>3715</v>
+        <v>3669</v>
       </c>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="4" t="n">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>3303</v>
@@ -21524,26 +21525,26 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2562</v>
+        <v>2528</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>2284</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>2484</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>2562</v>
+        <v>2528</v>
       </c>
       <c r="H16" s="7" t="n"/>
       <c r="I16" s="4" t="n">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>2284</v>
@@ -21556,26 +21557,26 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1817</v>
+        <v>1803</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1598</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>1771</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>1817</v>
+        <v>1803</v>
       </c>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="4" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>1598</v>
@@ -21588,26 +21589,26 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>935</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>1036</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="H18" s="7" t="n"/>
       <c r="I18" s="4" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>935</v>
@@ -21620,26 +21621,26 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>28</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>29</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="7" t="n"/>
       <c r="I19" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="4" t="n">
         <v>28</v>
@@ -21652,26 +21653,26 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>17</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7" t="n"/>
       <c r="I20" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>17</v>
@@ -21716,26 +21717,26 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>310627</v>
+        <v>308376</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>29572</v>
+        <v>27321</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>281055</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>6493</v>
+        <v>4242</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>304134</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>310627</v>
+        <v>308376</v>
       </c>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="4" t="n">
-        <v>29572</v>
+        <v>27321</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>281055</v>
@@ -23355,28 +23356,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>-85</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>-85</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>-85</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
         <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>-85</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
         <v>85</v>
@@ -23389,28 +23390,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48809.99999999996</v>
+        <v>47109.5833333333</v>
       </c>
       <c r="C3" t="n">
-        <v>4694.166666666628</v>
+        <v>2993.749999999971</v>
       </c>
       <c r="D3" t="n">
         <v>44115.83333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>4694.166666666628</v>
+        <v>2993.749999999971</v>
       </c>
       <c r="F3" t="n">
         <v>44115.83333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>4694.166666666628</v>
+        <v>2993.749999999971</v>
       </c>
       <c r="H3" t="n">
         <v>44115.83333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>4694.166666666628</v>
+        <v>2993.749999999971</v>
       </c>
       <c r="J3" t="n">
         <v>44115.83333333333</v>
@@ -23457,28 +23458,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1940</v>
+        <v>870</v>
       </c>
       <c r="C5" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>870</v>
       </c>
       <c r="E5" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>870</v>
       </c>
       <c r="G5" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>870</v>
       </c>
       <c r="I5" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>870</v>
@@ -23491,28 +23492,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10946</v>
+        <v>10576</v>
       </c>
       <c r="C6" t="n">
-        <v>1155</v>
+        <v>785</v>
       </c>
       <c r="D6" t="n">
         <v>9791</v>
       </c>
       <c r="E6" t="n">
-        <v>1155</v>
+        <v>785</v>
       </c>
       <c r="F6" t="n">
         <v>9791</v>
       </c>
       <c r="G6" t="n">
-        <v>1155</v>
+        <v>785</v>
       </c>
       <c r="H6" t="n">
         <v>9791</v>
       </c>
       <c r="I6" t="n">
-        <v>1155</v>
+        <v>785</v>
       </c>
       <c r="J6" t="n">
         <v>9791</v>
@@ -23525,28 +23526,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>353</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
         <v>353</v>
       </c>
       <c r="G7" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
         <v>353</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
         <v>353</v>
@@ -23559,28 +23560,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>83</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>83</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>83</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>83</v>
@@ -23593,28 +23594,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
         <v>602</v>
       </c>
       <c r="E9" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F9" t="n">
         <v>602</v>
       </c>
       <c r="G9" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
         <v>602</v>
       </c>
       <c r="I9" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="J9" t="n">
         <v>602</v>
@@ -23627,28 +23628,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>231</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
         <v>231</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
         <v>231</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
         <v>231</v>
@@ -23661,28 +23662,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6164</v>
+        <v>5999</v>
       </c>
       <c r="C11" t="n">
-        <v>572</v>
+        <v>407</v>
       </c>
       <c r="D11" t="n">
         <v>5592</v>
       </c>
       <c r="E11" t="n">
-        <v>572</v>
+        <v>407</v>
       </c>
       <c r="F11" t="n">
         <v>5592</v>
       </c>
       <c r="G11" t="n">
-        <v>572</v>
+        <v>407</v>
       </c>
       <c r="H11" t="n">
         <v>5592</v>
       </c>
       <c r="I11" t="n">
-        <v>572</v>
+        <v>407</v>
       </c>
       <c r="J11" t="n">
         <v>5592</v>
@@ -23729,28 +23730,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
         <v>248</v>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
         <v>248</v>
       </c>
       <c r="G13" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
         <v>248</v>
       </c>
       <c r="I13" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
         <v>248</v>
@@ -23763,28 +23764,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
         <v>371</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>371</v>
       </c>
       <c r="G14" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
         <v>371</v>
       </c>
       <c r="I14" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
         <v>371</v>
@@ -23797,28 +23798,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="C15" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D15" t="n">
         <v>447</v>
       </c>
       <c r="E15" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F15" t="n">
         <v>447</v>
       </c>
       <c r="G15" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H15" t="n">
         <v>447</v>
       </c>
       <c r="I15" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J15" t="n">
         <v>447</v>
@@ -23831,28 +23832,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
         <v>292</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
         <v>292</v>
       </c>
       <c r="G16" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
         <v>292</v>
       </c>
       <c r="I16" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J16" t="n">
         <v>292</v>
@@ -23865,28 +23866,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>143</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>143</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
         <v>143</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
         <v>143</v>
@@ -23899,28 +23900,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
         <v>129</v>
       </c>
       <c r="E18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
         <v>129</v>
       </c>
       <c r="G18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
         <v>129</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
         <v>129</v>
@@ -24035,28 +24036,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76740</v>
+        <v>74219</v>
       </c>
       <c r="C22" t="n">
-        <v>6790</v>
+        <v>4269</v>
       </c>
       <c r="D22" t="n">
         <v>69950</v>
       </c>
       <c r="E22" t="n">
-        <v>6790</v>
+        <v>4269</v>
       </c>
       <c r="F22" t="n">
         <v>69950</v>
       </c>
       <c r="G22" t="n">
-        <v>6790</v>
+        <v>4269</v>
       </c>
       <c r="H22" t="n">
         <v>69950</v>
       </c>
       <c r="I22" t="n">
-        <v>6790</v>
+        <v>4269</v>
       </c>
       <c r="J22" t="n">
         <v>69950</v>
@@ -24823,28 +24824,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -24857,28 +24858,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169838.3333333333</v>
+        <v>173478.7499999999</v>
       </c>
       <c r="C3" t="n">
-        <v>17562.91666666674</v>
+        <v>21203.33333333337</v>
       </c>
       <c r="D3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="E3" t="n">
-        <v>17562.91666666674</v>
+        <v>21203.33333333337</v>
       </c>
       <c r="F3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="G3" t="n">
-        <v>17562.91666666674</v>
+        <v>21203.33333333337</v>
       </c>
       <c r="H3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="I3" t="n">
-        <v>17562.91666666674</v>
+        <v>21203.33333333337</v>
       </c>
       <c r="J3" t="n">
         <v>152275.4166666665</v>
@@ -24891,28 +24892,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>33</v>
@@ -24925,28 +24926,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15770</v>
+        <v>16700</v>
       </c>
       <c r="C5" t="n">
-        <v>1240</v>
+        <v>2170</v>
       </c>
       <c r="D5" t="n">
         <v>14530</v>
       </c>
       <c r="E5" t="n">
-        <v>1240</v>
+        <v>2170</v>
       </c>
       <c r="F5" t="n">
         <v>14530</v>
       </c>
       <c r="G5" t="n">
-        <v>1240</v>
+        <v>2170</v>
       </c>
       <c r="H5" t="n">
         <v>14530</v>
       </c>
       <c r="I5" t="n">
-        <v>1240</v>
+        <v>2170</v>
       </c>
       <c r="J5" t="n">
         <v>14530</v>
@@ -24959,28 +24960,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34995</v>
+        <v>35695</v>
       </c>
       <c r="C6" t="n">
-        <v>3635</v>
+        <v>4335</v>
       </c>
       <c r="D6" t="n">
         <v>31360</v>
       </c>
       <c r="E6" t="n">
-        <v>3635</v>
+        <v>4335</v>
       </c>
       <c r="F6" t="n">
         <v>31360</v>
       </c>
       <c r="G6" t="n">
-        <v>3635</v>
+        <v>4335</v>
       </c>
       <c r="H6" t="n">
         <v>31360</v>
       </c>
       <c r="I6" t="n">
-        <v>3635</v>
+        <v>4335</v>
       </c>
       <c r="J6" t="n">
         <v>31360</v>
@@ -24993,28 +24994,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1014</v>
+        <v>1030</v>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
         <v>950</v>
       </c>
       <c r="E7" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
         <v>950</v>
       </c>
       <c r="G7" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
         <v>950</v>
       </c>
       <c r="I7" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="J7" t="n">
         <v>950</v>
@@ -25027,28 +25028,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>151</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>151</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
         <v>151</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>151</v>
@@ -25061,28 +25062,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1861</v>
+        <v>1907</v>
       </c>
       <c r="C9" t="n">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D9" t="n">
         <v>1666</v>
       </c>
       <c r="E9" t="n">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="F9" t="n">
         <v>1666</v>
       </c>
       <c r="G9" t="n">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="H9" t="n">
         <v>1666</v>
       </c>
       <c r="I9" t="n">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="J9" t="n">
         <v>1666</v>
@@ -25095,28 +25096,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D10" t="n">
         <v>692</v>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F10" t="n">
         <v>692</v>
       </c>
       <c r="G10" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H10" t="n">
         <v>692</v>
       </c>
       <c r="I10" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J10" t="n">
         <v>692</v>
@@ -25129,28 +25130,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24237</v>
+        <v>24732</v>
       </c>
       <c r="C11" t="n">
-        <v>2135</v>
+        <v>2630</v>
       </c>
       <c r="D11" t="n">
         <v>22102</v>
       </c>
       <c r="E11" t="n">
-        <v>2135</v>
+        <v>2630</v>
       </c>
       <c r="F11" t="n">
         <v>22102</v>
       </c>
       <c r="G11" t="n">
-        <v>2135</v>
+        <v>2630</v>
       </c>
       <c r="H11" t="n">
         <v>22102</v>
       </c>
       <c r="I11" t="n">
-        <v>2135</v>
+        <v>2630</v>
       </c>
       <c r="J11" t="n">
         <v>22102</v>
@@ -25197,28 +25198,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
         <v>651</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F13" t="n">
         <v>651</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H13" t="n">
         <v>651</v>
       </c>
       <c r="I13" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J13" t="n">
         <v>651</v>
@@ -25231,28 +25232,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1132</v>
+        <v>1166</v>
       </c>
       <c r="C14" t="n">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="D14" t="n">
         <v>974</v>
       </c>
       <c r="E14" t="n">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="F14" t="n">
         <v>974</v>
       </c>
       <c r="G14" t="n">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="H14" t="n">
         <v>974</v>
       </c>
       <c r="I14" t="n">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="J14" t="n">
         <v>974</v>
@@ -25265,28 +25266,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1648</v>
+        <v>1673</v>
       </c>
       <c r="C15" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D15" t="n">
         <v>1508</v>
       </c>
       <c r="E15" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="F15" t="n">
         <v>1508</v>
       </c>
       <c r="G15" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="H15" t="n">
         <v>1508</v>
       </c>
       <c r="I15" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="J15" t="n">
         <v>1508</v>
@@ -25299,28 +25300,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="C16" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D16" t="n">
         <v>957</v>
       </c>
       <c r="E16" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F16" t="n">
         <v>957</v>
       </c>
       <c r="G16" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="H16" t="n">
         <v>957</v>
       </c>
       <c r="I16" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="J16" t="n">
         <v>957</v>
@@ -25333,28 +25334,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D17" t="n">
         <v>451</v>
       </c>
       <c r="E17" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F17" t="n">
         <v>451</v>
       </c>
       <c r="G17" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H17" t="n">
         <v>451</v>
       </c>
       <c r="I17" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="J17" t="n">
         <v>451</v>
@@ -25367,28 +25368,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C18" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" t="n">
         <v>348</v>
       </c>
       <c r="E18" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F18" t="n">
         <v>348</v>
       </c>
       <c r="G18" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H18" t="n">
         <v>348</v>
       </c>
       <c r="I18" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J18" t="n">
         <v>348</v>
@@ -25401,28 +25402,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>12</v>
@@ -25503,28 +25504,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>196588</v>
+        <v>201509</v>
       </c>
       <c r="C22" t="n">
-        <v>21307</v>
+        <v>26228</v>
       </c>
       <c r="D22" t="n">
         <v>175281</v>
       </c>
       <c r="E22" t="n">
-        <v>21307</v>
+        <v>26228</v>
       </c>
       <c r="F22" t="n">
         <v>175281</v>
       </c>
       <c r="G22" t="n">
-        <v>21307</v>
+        <v>26228</v>
       </c>
       <c r="H22" t="n">
         <v>175281</v>
       </c>
       <c r="I22" t="n">
-        <v>21307</v>
+        <v>26228</v>
       </c>
       <c r="J22" t="n">
         <v>175281</v>
@@ -29220,6 +29221,539 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Stat</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>All-time</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>Session Delta</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>Session Snapshot</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>Daily Delta</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Daily Snapshot</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Yesterday Delta</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>Yesterday Snapshot</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>Monthly Delta</t>
+        </is>
+      </c>
+      <c r="J1" s="11" t="inlineStr">
+        <is>
+          <t>Monthly Snapshot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>available_layers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>587805.000000003</v>
+      </c>
+      <c r="C3" t="n">
+        <v>587805.000000003</v>
+      </c>
+      <c r="E3" t="n">
+        <v>587805.000000003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>587805.000000003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>587805.000000003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>122</v>
+      </c>
+      <c r="C4" t="n">
+        <v>122</v>
+      </c>
+      <c r="E4" t="n">
+        <v>122</v>
+      </c>
+      <c r="G4" t="n">
+        <v>122</v>
+      </c>
+      <c r="I4" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>coins</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7690</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7690</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7690</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7690</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>damage_dealt</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>271240</v>
+      </c>
+      <c r="C6" t="n">
+        <v>271240</v>
+      </c>
+      <c r="E6" t="n">
+        <v>271240</v>
+      </c>
+      <c r="G6" t="n">
+        <v>271240</v>
+      </c>
+      <c r="I6" t="n">
+        <v>271240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9537</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9537</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9537</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9537</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9537</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>deaths_explosive</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1403</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1403</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1403</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1403</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>games_played</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12305</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12305</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12305</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12305</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12305</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>losses</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5343</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5343</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5343</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5343</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sheep_thrown</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>59380</v>
+      </c>
+      <c r="C11" t="n">
+        <v>59380</v>
+      </c>
+      <c r="E11" t="n">
+        <v>59380</v>
+      </c>
+      <c r="G11" t="n">
+        <v>59380</v>
+      </c>
+      <c r="I11" t="n">
+        <v>59380</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deaths_bow</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>125</v>
+      </c>
+      <c r="C12" t="n">
+        <v>125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>125</v>
+      </c>
+      <c r="G12" t="n">
+        <v>125</v>
+      </c>
+      <c r="I12" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>deaths_void</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6522</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6522</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6522</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6522</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wins</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6958</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6958</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6958</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6958</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>kills</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>13128</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13128</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13128</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13128</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kills_void</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7508</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7508</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7508</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7508</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>magic_wool_hit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>501</v>
+      </c>
+      <c r="C17" t="n">
+        <v>501</v>
+      </c>
+      <c r="E17" t="n">
+        <v>501</v>
+      </c>
+      <c r="G17" t="n">
+        <v>501</v>
+      </c>
+      <c r="I17" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>kills_explosive</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2535</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2535</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2535</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2535</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>kills_melee</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1364</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1364</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1364</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deaths_melee</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>561</v>
+      </c>
+      <c r="C20" t="n">
+        <v>561</v>
+      </c>
+      <c r="E20" t="n">
+        <v>561</v>
+      </c>
+      <c r="G20" t="n">
+        <v>561</v>
+      </c>
+      <c r="I20" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>kills_bow</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>219</v>
+      </c>
+      <c r="C21" t="n">
+        <v>219</v>
+      </c>
+      <c r="E21" t="n">
+        <v>219</v>
+      </c>
+      <c r="G21" t="n">
+        <v>219</v>
+      </c>
+      <c r="I21" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>playtime</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>732384</v>
+      </c>
+      <c r="C22" t="n">
+        <v>732384</v>
+      </c>
+      <c r="E22" t="n">
+        <v>732384</v>
+      </c>
+      <c r="G22" t="n">
+        <v>732384</v>
+      </c>
+      <c r="I22" t="n">
+        <v>732384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1406,28 +1406,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>2</v>
@@ -1440,28 +1440,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>228735.4166666664</v>
+        <v>229525.4166666664</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12519.58333333323</v>
+        <v>13309.58333333323</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>216215.8333333332</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10907.91666666651</v>
+        <v>11697.91666666651</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>217827.4999999999</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>26809.16666666642</v>
+        <v>27599.16666666642</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>201926.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12519.58333333323</v>
+        <v>13309.58333333323</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>216215.8333333332</v>
@@ -1542,28 +1542,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>67323</v>
+        <v>67476</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4131</v>
+        <v>4284</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>63192</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3666</v>
+        <v>3819</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>63657</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8146</v>
+        <v>8299</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>59177</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>4131</v>
+        <v>4284</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>63192</v>
@@ -1576,28 +1576,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1875</v>
+        <v>1880</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1717</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>1804</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>1740</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>1717</v>
@@ -1644,28 +1644,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3403</v>
+        <v>3411</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>3231</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>3252</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>3041</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>3231</v>
@@ -1678,28 +1678,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>1390</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>1451</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>1404</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>1390</v>
@@ -1712,28 +1712,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>42026</v>
+        <v>42119</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>2095</v>
+        <v>2188</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>39931</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1850</v>
+        <v>1943</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>40176</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>4398</v>
+        <v>4491</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>37628</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>2095</v>
+        <v>2188</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>39931</v>
@@ -1780,28 +1780,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>1141</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>1143</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>1103</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>1141</v>
@@ -1814,28 +1814,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1897</v>
+        <v>1903</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1557</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>1800</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>1636</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>1557</v>
@@ -1848,28 +1848,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2713</v>
+        <v>2720</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>2278</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>2549</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>2351</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>2278</v>
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1879</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1890</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>1745</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>1879</v>
@@ -1916,28 +1916,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1422</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>1431</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>1322</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>1422</v>
@@ -2086,28 +2086,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>352285</v>
+        <v>353437</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>18155</v>
+        <v>19307</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>334130</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>16051</v>
+        <v>17203</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>336234</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>38314</v>
+        <v>39466</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>313971</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>18155</v>
+        <v>19307</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>334130</v>
@@ -3000,28 +3000,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0</v>
@@ -3034,28 +3034,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>3893614.166666671</v>
+        <v>3893994.166666671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3172.083333332092</v>
+        <v>3552.083333332092</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>3890442.083333339</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>3893614.166666671</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>21810.0000000014</v>
+        <v>22190.0000000014</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>3871804.16666667</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3172.083333332092</v>
+        <v>3552.083333332092</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>3890442.083333339</v>
@@ -3102,28 +3102,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1291623</v>
+        <v>1291734</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>596</v>
+        <v>707</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1291027</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>1291623</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4699</v>
+        <v>4810</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>1286924</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>596</v>
+        <v>707</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1291027</v>
@@ -3136,28 +3136,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>62200</v>
+        <v>62360</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>572</v>
+        <v>732</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>61628</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>62200</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>4668</v>
+        <v>4828</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>57532</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>572</v>
+        <v>732</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>61628</v>
@@ -3170,28 +3170,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>1219</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>1380</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>1268</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>1219</v>
@@ -3204,28 +3204,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>289</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>289</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>265</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>289</v>
@@ -3238,28 +3238,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2886</v>
+        <v>2891</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>2856</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>2886</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>2670</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>2856</v>
@@ -3272,28 +3272,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>731</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>839</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>767</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>731</v>
@@ -3306,28 +3306,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>31564</v>
+        <v>31654</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>31295</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>31564</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>2189</v>
+        <v>2279</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>29375</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>31295</v>
@@ -3374,28 +3374,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>972</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>992</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>909</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>972</v>
@@ -3408,28 +3408,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1869</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>2039</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>1898</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>1869</v>
@@ -3442,28 +3442,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>2477</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>2728</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>2530</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>2477</v>
@@ -3476,28 +3476,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1676</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1695</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>1573</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>1676</v>
@@ -3510,28 +3510,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>1384</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>1398</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>1315</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>1384</v>
@@ -3680,28 +3680,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>1077239</v>
+        <v>1077887</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>3221</v>
+        <v>3869</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1074018</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>1077239</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>23760</v>
+        <v>24408</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>1053479</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>3221</v>
+        <v>3869</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>1074018</v>
@@ -4594,28 +4594,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>3</v>
@@ -4628,28 +4628,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>1674495.833333337</v>
+        <v>1675577.91666667</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5558.750000000233</v>
+        <v>6640.833333333256</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>1668937.083333337</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.328306436538696e-10</v>
+        <v>1082.083333333256</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>1674495.833333337</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>43662.0833333272</v>
+        <v>44744.16666666023</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>1630833.75000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5558.750000000233</v>
+        <v>6640.833333333256</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>1668937.083333337</v>
@@ -4662,28 +4662,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>342</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>343</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>334</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>342</v>
@@ -4696,28 +4696,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>68961</v>
+        <v>68991</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1392</v>
+        <v>1422</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>67569</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>68961</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6911</v>
+        <v>6941</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>62050</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1392</v>
+        <v>1422</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>67569</v>
@@ -4730,28 +4730,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>375349</v>
+        <v>375537</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1092</v>
+        <v>1280</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>374257</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>375349</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8283</v>
+        <v>8471</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>367066</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1092</v>
+        <v>1280</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>374257</v>
@@ -4764,28 +4764,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6932</v>
+        <v>6938</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>6706</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>6932</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>6728</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>6706</v>
@@ -4798,28 +4798,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>1260</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>1263</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>1236</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>1260</v>
@@ -4832,28 +4832,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17598</v>
+        <v>17607</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>17531</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>17598</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>17121</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>17531</v>
@@ -4866,28 +4866,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4172</v>
+        <v>4176</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>4072</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>4172</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>4081</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>4072</v>
@@ -4900,28 +4900,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>155049</v>
+        <v>155123</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>154591</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>155049</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>3398</v>
+        <v>3472</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>151651</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>154591</v>
@@ -4968,28 +4968,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>5333</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>5355</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>5190</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>5333</v>
@@ -5002,28 +5002,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>13397</v>
+        <v>13402</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>12965</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>13397</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>13013</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>12965</v>
@@ -5036,28 +5036,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>16845</v>
+        <v>16854</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>16418</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>16845</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>16469</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>16418</v>
@@ -5070,28 +5070,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>9808</v>
+        <v>9814</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>9780</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>9808</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>9590</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>9780</v>
@@ -5104,28 +5104,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>9803</v>
+        <v>9809</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>9787</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>9803</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>9687</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>9787</v>
@@ -5138,28 +5138,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>6695</v>
+        <v>6698</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>6676</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>6695</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>6544</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>6676</v>
@@ -5274,28 +5274,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>1921790</v>
+        <v>1922839</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>6669</v>
+        <v>7718</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>1915121</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>1921790</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>49829</v>
+        <v>50878</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>1871961</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>6669</v>
+        <v>7718</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>1915121</v>
@@ -5391,28 +5391,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-41</v>
+        <v>-36</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>95</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-41</v>
+        <v>-36</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>95</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-41</v>
+        <v>-36</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>95</v>
@@ -5425,28 +5425,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>136419.1666666665</v>
+        <v>137292.4999999999</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>33366.66666666654</v>
+        <v>34239.99999999991</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>103052.5</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>3897.083333333343</v>
+        <v>4770.416666666715</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>132522.0833333332</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>33366.66666666654</v>
+        <v>34239.99999999991</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>103052.5</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>33366.66666666654</v>
+        <v>34239.99999999991</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>103052.5</v>
@@ -5527,28 +5527,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>55508</v>
+        <v>55881</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14055</v>
+        <v>14428</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>41453</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1891</v>
+        <v>2264</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>53617</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14055</v>
+        <v>14428</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>41453</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>14055</v>
+        <v>14428</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>41453</v>
@@ -5561,28 +5561,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>609</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>848</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>662</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>609</v>
@@ -5595,28 +5595,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>190</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>234</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>190</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>190</v>
@@ -5629,28 +5629,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1836</v>
+        <v>1848</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>1381</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>1784</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>1381</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>1381</v>
@@ -5663,28 +5663,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>475</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>660</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>517</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>475</v>
@@ -5697,28 +5697,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>22672</v>
+        <v>22807</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5546</v>
+        <v>5681</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>17126</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>674</v>
+        <v>809</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>21998</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>5546</v>
+        <v>5681</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>17126</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>5546</v>
+        <v>5681</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>17126</v>
@@ -5765,28 +5765,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>458</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>589</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>458</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>458</v>
@@ -5799,28 +5799,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>775</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>1122</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>862</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>775</v>
@@ -5833,28 +5833,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2454</v>
+        <v>2468</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>1680</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>2371</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>1866</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>1680</v>
@@ -5867,28 +5867,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1631</v>
+        <v>1642</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>1238</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1574</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>1238</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>1238</v>
@@ -5901,28 +5901,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>71</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>127</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>71</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>71</v>
@@ -5935,28 +5935,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>611</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>772</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>611</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>611</v>
@@ -6071,28 +6071,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>197530</v>
+        <v>198774</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>47560</v>
+        <v>48804</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>149970</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>5225</v>
+        <v>6469</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>192305</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>47560</v>
+        <v>48804</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>149970</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>47560</v>
+        <v>48804</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>149970</v>
@@ -16507,26 +16507,26 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="7" t="n"/>
       <c r="I2" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0</v>
@@ -16539,26 +16539,26 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>86623.33333333334</v>
+        <v>86879.16666666667</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10787.50000000006</v>
+        <v>11043.33333333339</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>75835.83333333328</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9207.916666666715</v>
+        <v>9463.750000000044</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>77415.41666666663</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>86623.33333333334</v>
+        <v>86879.16666666667</v>
       </c>
       <c r="H3" s="7" t="n"/>
       <c r="I3" s="4" t="n">
-        <v>10787.50000000006</v>
+        <v>11043.33333333339</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>75835.83333333328</v>
@@ -16603,26 +16603,26 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8320</v>
+        <v>8380</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1530</v>
+        <v>1590</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>6790</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>7300</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8320</v>
+        <v>8380</v>
       </c>
       <c r="H5" s="7" t="n"/>
       <c r="I5" s="4" t="n">
-        <v>1530</v>
+        <v>1590</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6790</v>
@@ -16667,26 +16667,26 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>438</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>446</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H7" s="7" t="n"/>
       <c r="I7" s="4" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>438</v>
@@ -16731,26 +16731,26 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>548</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>563</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="4" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>548</v>
@@ -16795,26 +16795,26 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>4984</v>
+        <v>4986</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>3914</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>4045</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>4984</v>
+        <v>4986</v>
       </c>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="4" t="n">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>3914</v>
@@ -16859,26 +16859,26 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>297</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>302</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7" t="n"/>
       <c r="I13" s="4" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>297</v>
@@ -16891,26 +16891,26 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>261</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>275</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="4" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>261</v>
@@ -16987,26 +16987,26 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>58</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>62</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>58</v>
@@ -17147,26 +17147,26 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>93358</v>
+        <v>93792</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>13710</v>
+        <v>14144</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>79648</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>12007</v>
+        <v>12441</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>81351</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>93358</v>
+        <v>93792</v>
       </c>
       <c r="H22" s="7" t="n"/>
       <c r="I22" s="4" t="n">
-        <v>13710</v>
+        <v>14144</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>79648</v>
@@ -24826,28 +24826,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>53</v>
+      </c>
+      <c r="C2" t="n">
         <v>48</v>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -24860,28 +24860,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>185667.4999999999</v>
+        <v>187059.1666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>33392.0833333334</v>
+        <v>34783.75000000009</v>
       </c>
       <c r="D3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="E3" t="n">
-        <v>33392.0833333334</v>
+        <v>34783.75000000009</v>
       </c>
       <c r="F3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="G3" t="n">
-        <v>33392.0833333334</v>
+        <v>34783.75000000009</v>
       </c>
       <c r="H3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="I3" t="n">
-        <v>33392.0833333334</v>
+        <v>34783.75000000009</v>
       </c>
       <c r="J3" t="n">
         <v>152275.4166666665</v>
@@ -24962,28 +24962,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38838</v>
+        <v>39088</v>
       </c>
       <c r="C6" t="n">
-        <v>7478</v>
+        <v>7728</v>
       </c>
       <c r="D6" t="n">
         <v>31360</v>
       </c>
       <c r="E6" t="n">
-        <v>7478</v>
+        <v>7728</v>
       </c>
       <c r="F6" t="n">
         <v>31360</v>
       </c>
       <c r="G6" t="n">
-        <v>7478</v>
+        <v>7728</v>
       </c>
       <c r="H6" t="n">
         <v>31360</v>
       </c>
       <c r="I6" t="n">
-        <v>7478</v>
+        <v>7728</v>
       </c>
       <c r="J6" t="n">
         <v>31360</v>
@@ -24996,28 +24996,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="C7" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D7" t="n">
         <v>950</v>
       </c>
       <c r="E7" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F7" t="n">
         <v>950</v>
       </c>
       <c r="G7" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H7" t="n">
         <v>950</v>
       </c>
       <c r="I7" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="J7" t="n">
         <v>950</v>
@@ -25064,28 +25064,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2082</v>
+        <v>2095</v>
       </c>
       <c r="C9" t="n">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="D9" t="n">
         <v>1666</v>
       </c>
       <c r="E9" t="n">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="F9" t="n">
         <v>1666</v>
       </c>
       <c r="G9" t="n">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="H9" t="n">
         <v>1666</v>
       </c>
       <c r="I9" t="n">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="J9" t="n">
         <v>1666</v>
@@ -25098,28 +25098,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C10" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D10" t="n">
         <v>692</v>
       </c>
       <c r="E10" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F10" t="n">
         <v>692</v>
       </c>
       <c r="G10" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H10" t="n">
         <v>692</v>
       </c>
       <c r="I10" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J10" t="n">
         <v>692</v>
@@ -25132,28 +25132,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26544</v>
+        <v>26723</v>
       </c>
       <c r="C11" t="n">
-        <v>4442</v>
+        <v>4621</v>
       </c>
       <c r="D11" t="n">
         <v>22102</v>
       </c>
       <c r="E11" t="n">
-        <v>4442</v>
+        <v>4621</v>
       </c>
       <c r="F11" t="n">
         <v>22102</v>
       </c>
       <c r="G11" t="n">
-        <v>4442</v>
+        <v>4621</v>
       </c>
       <c r="H11" t="n">
         <v>22102</v>
       </c>
       <c r="I11" t="n">
-        <v>4442</v>
+        <v>4621</v>
       </c>
       <c r="J11" t="n">
         <v>22102</v>
@@ -25200,28 +25200,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C13" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D13" t="n">
         <v>651</v>
       </c>
       <c r="E13" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F13" t="n">
         <v>651</v>
       </c>
       <c r="G13" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H13" t="n">
         <v>651</v>
       </c>
       <c r="I13" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J13" t="n">
         <v>651</v>
@@ -25234,28 +25234,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1304</v>
+        <v>1312</v>
       </c>
       <c r="C14" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D14" t="n">
         <v>974</v>
       </c>
       <c r="E14" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F14" t="n">
         <v>974</v>
       </c>
       <c r="G14" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H14" t="n">
         <v>974</v>
       </c>
       <c r="I14" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="J14" t="n">
         <v>974</v>
@@ -25268,28 +25268,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="C15" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="D15" t="n">
         <v>1508</v>
       </c>
       <c r="E15" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F15" t="n">
         <v>1508</v>
       </c>
       <c r="G15" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H15" t="n">
         <v>1508</v>
       </c>
       <c r="I15" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="J15" t="n">
         <v>1508</v>
@@ -25302,28 +25302,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="C16" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D16" t="n">
         <v>957</v>
       </c>
       <c r="E16" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F16" t="n">
         <v>957</v>
       </c>
       <c r="G16" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H16" t="n">
         <v>957</v>
       </c>
       <c r="I16" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J16" t="n">
         <v>957</v>
@@ -25336,28 +25336,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C17" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D17" t="n">
         <v>451</v>
       </c>
       <c r="E17" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F17" t="n">
         <v>451</v>
       </c>
       <c r="G17" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H17" t="n">
         <v>451</v>
       </c>
       <c r="I17" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="J17" t="n">
         <v>451</v>
@@ -25370,28 +25370,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C18" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D18" t="n">
         <v>348</v>
       </c>
       <c r="E18" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F18" t="n">
         <v>348</v>
       </c>
       <c r="G18" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H18" t="n">
         <v>348</v>
       </c>
       <c r="I18" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J18" t="n">
         <v>348</v>
@@ -25506,28 +25506,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>218774</v>
+        <v>220338</v>
       </c>
       <c r="C22" t="n">
-        <v>43493</v>
+        <v>45057</v>
       </c>
       <c r="D22" t="n">
         <v>175281</v>
       </c>
       <c r="E22" t="n">
-        <v>43493</v>
+        <v>45057</v>
       </c>
       <c r="F22" t="n">
         <v>175281</v>
       </c>
       <c r="G22" t="n">
-        <v>43493</v>
+        <v>45057</v>
       </c>
       <c r="H22" t="n">
         <v>175281</v>
       </c>
       <c r="I22" t="n">
-        <v>43493</v>
+        <v>45057</v>
       </c>
       <c r="J22" t="n">
         <v>175281</v>
@@ -28766,15 +28766,27 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>13</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>13</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>13</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>13</v>
       </c>
     </row>
@@ -28788,15 +28800,27 @@
         <v>1966891.666666669</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>1966891.666666669</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>1966891.666666669</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1966891.666666669</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>1966891.666666669</v>
       </c>
     </row>
@@ -28810,15 +28834,27 @@
         <v>404</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>404</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>404</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>404</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>404</v>
       </c>
     </row>
@@ -28832,15 +28868,27 @@
         <v>28364</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>28364</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>28364</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>28364</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>28364</v>
       </c>
     </row>
@@ -28854,15 +28902,27 @@
         <v>491425</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>491425</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>491425</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>491425</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>491425</v>
       </c>
     </row>
@@ -28876,15 +28936,27 @@
         <v>6566</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>6566</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>6566</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>6566</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>6566</v>
       </c>
     </row>
@@ -28898,15 +28970,27 @@
         <v>1593</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>1593</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>1593</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>1593</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1593</v>
       </c>
     </row>
@@ -28920,15 +29004,27 @@
         <v>17725</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>17725</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>17725</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>17725</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>17725</v>
       </c>
     </row>
@@ -28942,15 +29038,27 @@
         <v>3704</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>3704</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>3704</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>3704</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>3704</v>
       </c>
     </row>
@@ -28964,15 +29072,27 @@
         <v>231700</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>231700</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>231700</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>231700</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>231700</v>
       </c>
     </row>
@@ -28986,15 +29106,27 @@
         <v>99</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>99</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>99</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>99</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>99</v>
       </c>
     </row>
@@ -29008,15 +29140,27 @@
         <v>4720</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>4720</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>4720</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>4720</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>4720</v>
       </c>
     </row>
@@ -29030,15 +29174,27 @@
         <v>13999</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>13999</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>13999</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>13999</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>13999</v>
       </c>
     </row>
@@ -29052,15 +29208,27 @@
         <v>21945</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>21945</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>21945</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>21945</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>21945</v>
       </c>
     </row>
@@ -29074,15 +29242,27 @@
         <v>14699</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>14699</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>14699</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>14699</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>14699</v>
       </c>
     </row>
@@ -29096,15 +29276,27 @@
         <v>22886</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>22886</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>22886</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>22886</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>22886</v>
       </c>
     </row>
@@ -29118,15 +29310,27 @@
         <v>6801</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>6801</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>6801</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>6801</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>6801</v>
       </c>
     </row>
@@ -29140,15 +29344,27 @@
         <v>133</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>133</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>133</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>133</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>133</v>
       </c>
     </row>
@@ -29162,15 +29378,27 @@
         <v>49</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>49</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>49</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>49</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>49</v>
       </c>
     </row>
@@ -29184,15 +29412,27 @@
         <v>310</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>310</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>310</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>310</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>310</v>
       </c>
     </row>
@@ -29206,15 +29446,27 @@
         <v>1924576</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>1924576</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1924576</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>1924576</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1924576</v>
       </c>
     </row>
@@ -30546,28 +30798,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="H2" t="n">
         <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="J2" t="n">
         <v>12</v>
@@ -30580,28 +30832,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62206.25000000007</v>
+        <v>63638.3333333334</v>
       </c>
       <c r="C3" t="n">
-        <v>3917.500000000007</v>
+        <v>5349.583333333343</v>
       </c>
       <c r="D3" t="n">
         <v>58288.75000000006</v>
       </c>
       <c r="E3" t="n">
-        <v>3917.500000000007</v>
+        <v>5349.583333333343</v>
       </c>
       <c r="F3" t="n">
         <v>58288.75000000006</v>
       </c>
       <c r="G3" t="n">
-        <v>3917.500000000007</v>
+        <v>5349.583333333343</v>
       </c>
       <c r="H3" t="n">
         <v>58288.75000000006</v>
       </c>
       <c r="I3" t="n">
-        <v>3917.500000000007</v>
+        <v>5349.583333333343</v>
       </c>
       <c r="J3" t="n">
         <v>58288.75000000006</v>
@@ -30648,28 +30900,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9650</v>
+        <v>9680</v>
       </c>
       <c r="C5" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="D5" t="n">
         <v>9270</v>
       </c>
       <c r="E5" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="F5" t="n">
         <v>9270</v>
       </c>
       <c r="G5" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="H5" t="n">
         <v>9270</v>
       </c>
       <c r="I5" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="J5" t="n">
         <v>9270</v>
@@ -30682,28 +30934,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15895</v>
+        <v>16201</v>
       </c>
       <c r="C6" t="n">
-        <v>1567</v>
+        <v>1873</v>
       </c>
       <c r="D6" t="n">
         <v>14328</v>
       </c>
       <c r="E6" t="n">
-        <v>1567</v>
+        <v>1873</v>
       </c>
       <c r="F6" t="n">
         <v>14328</v>
       </c>
       <c r="G6" t="n">
-        <v>1567</v>
+        <v>1873</v>
       </c>
       <c r="H6" t="n">
         <v>14328</v>
       </c>
       <c r="I6" t="n">
-        <v>1567</v>
+        <v>1873</v>
       </c>
       <c r="J6" t="n">
         <v>14328</v>
@@ -30716,28 +30968,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>280</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
         <v>280</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H7" t="n">
         <v>280</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
         <v>280</v>
@@ -30750,28 +31002,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>51</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>51</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>51</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>51</v>
@@ -30784,28 +31036,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
         <v>562</v>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F9" t="n">
         <v>562</v>
       </c>
       <c r="G9" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H9" t="n">
         <v>562</v>
       </c>
       <c r="I9" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J9" t="n">
         <v>562</v>
@@ -30818,28 +31070,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>137</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>137</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
         <v>137</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
         <v>137</v>
@@ -30852,28 +31104,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5848</v>
+        <v>5997</v>
       </c>
       <c r="C11" t="n">
-        <v>539</v>
+        <v>688</v>
       </c>
       <c r="D11" t="n">
         <v>5309</v>
       </c>
       <c r="E11" t="n">
-        <v>539</v>
+        <v>688</v>
       </c>
       <c r="F11" t="n">
         <v>5309</v>
       </c>
       <c r="G11" t="n">
-        <v>539</v>
+        <v>688</v>
       </c>
       <c r="H11" t="n">
         <v>5309</v>
       </c>
       <c r="I11" t="n">
-        <v>539</v>
+        <v>688</v>
       </c>
       <c r="J11" t="n">
         <v>5309</v>
@@ -30920,28 +31172,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
         <v>209</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
         <v>209</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
         <v>209</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
         <v>209</v>
@@ -30954,28 +31206,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
         <v>425</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
         <v>425</v>
       </c>
       <c r="G14" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H14" t="n">
         <v>425</v>
       </c>
       <c r="I14" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J14" t="n">
         <v>425</v>
@@ -30988,28 +31240,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="C15" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D15" t="n">
         <v>592</v>
       </c>
       <c r="E15" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
         <v>592</v>
       </c>
       <c r="G15" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
         <v>592</v>
       </c>
       <c r="I15" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J15" t="n">
         <v>592</v>
@@ -31022,28 +31274,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C16" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D16" t="n">
         <v>362</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F16" t="n">
         <v>362</v>
       </c>
       <c r="G16" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H16" t="n">
         <v>362</v>
       </c>
       <c r="I16" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J16" t="n">
         <v>362</v>
@@ -31056,28 +31308,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
         <v>144</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
         <v>144</v>
       </c>
       <c r="G17" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H17" t="n">
         <v>144</v>
       </c>
       <c r="I17" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
         <v>144</v>
@@ -31090,28 +31342,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
         <v>172</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
         <v>172</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
         <v>172</v>
       </c>
       <c r="I18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
         <v>172</v>
@@ -31226,28 +31478,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64181</v>
+        <v>65914</v>
       </c>
       <c r="C22" t="n">
-        <v>5106</v>
+        <v>6839</v>
       </c>
       <c r="D22" t="n">
         <v>59075</v>
       </c>
       <c r="E22" t="n">
-        <v>5106</v>
+        <v>6839</v>
       </c>
       <c r="F22" t="n">
         <v>59075</v>
       </c>
       <c r="G22" t="n">
-        <v>5106</v>
+        <v>6839</v>
       </c>
       <c r="H22" t="n">
         <v>59075</v>
       </c>
       <c r="I22" t="n">
-        <v>5106</v>
+        <v>6839</v>
       </c>
       <c r="J22" t="n">
         <v>59075</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8612,28 +8612,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>2504034.166666666</v>
+        <v>2504099.583333332</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16465.83333333349</v>
+        <v>16531.25</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16465.83333333349</v>
+        <v>16531.25</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>16465.83333333535</v>
+        <v>16531.25000000186</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>2487568.33333333</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16465.83333333349</v>
+        <v>16531.25</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>2487568.333333332</v>
@@ -8714,28 +8714,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>839917</v>
+        <v>839957</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3586</v>
+        <v>3626</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3586</v>
+        <v>3626</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3586</v>
+        <v>3626</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3586</v>
+        <v>3626</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>836331</v>
@@ -8816,28 +8816,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>24692</v>
+        <v>24693</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>24580</v>
@@ -8884,28 +8884,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>308870</v>
+        <v>308880</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>307668</v>
@@ -8986,28 +8986,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>18546</v>
+        <v>18547</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>18435</v>
@@ -9020,28 +9020,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>36035</v>
+        <v>36036</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>35842</v>
@@ -9054,28 +9054,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>22935</v>
+        <v>22936</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>22815</v>
@@ -9258,28 +9258,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>2844812</v>
+        <v>2844885</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>12854</v>
+        <v>12927</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>12854</v>
+        <v>12927</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>12854</v>
+        <v>12927</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>12854</v>
+        <v>12927</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>2831958</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8578,28 +8578,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-78</v>
+        <v>-65</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>-78</v>
+        <v>-65</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-78</v>
+        <v>-65</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>80</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-78</v>
+        <v>-65</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>80</v>
@@ -8612,28 +8612,28 @@
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>2504317.083333332</v>
+        <v>2505057.499999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16748.75</v>
+        <v>17489.16666666698</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16748.75</v>
+        <v>17489.16666666698</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>2487568.333333332</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>16748.75000000186</v>
+        <v>17489.16666666884</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>2487568.33333333</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16748.75</v>
+        <v>17489.16666666698</v>
       </c>
       <c r="J3" s="6" t="n">
         <v>2487568.333333332</v>
@@ -8646,28 +8646,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>510</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>510</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>510</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>510</v>
@@ -8714,28 +8714,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>840059</v>
+        <v>840387</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3728</v>
+        <v>4056</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3728</v>
+        <v>4056</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3728</v>
+        <v>4056</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>836331</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3728</v>
+        <v>4056</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>836331</v>
@@ -8748,28 +8748,28 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>9922</v>
+        <v>9924</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>9910</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>9910</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>9910</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>9910</v>
@@ -8782,28 +8782,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>2711</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>2711</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>2711</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>2711</v>
@@ -8816,28 +8816,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>24696</v>
+        <v>24705</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>24580</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>24580</v>
@@ -8850,28 +8850,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6129</v>
+        <v>6131</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>6127</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>6127</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>6127</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>6127</v>
@@ -8884,28 +8884,28 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>308923</v>
+        <v>309039</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>1255</v>
+        <v>1371</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1255</v>
+        <v>1371</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1255</v>
+        <v>1371</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>307668</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1255</v>
+        <v>1371</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>307668</v>
@@ -8952,28 +8952,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>6817</v>
+        <v>6818</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>6807</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>6807</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>6807</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>6807</v>
@@ -8986,28 +8986,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>18549</v>
+        <v>18556</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>18435</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>18435</v>
@@ -9020,28 +9020,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>36038</v>
+        <v>36053</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>35842</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>35842</v>
@@ -9054,28 +9054,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>22937</v>
+        <v>22943</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>22815</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J16" s="4" t="n">
         <v>22815</v>
@@ -9088,28 +9088,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>17801</v>
+        <v>17809</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>17711</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>17711</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>17711</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J17" s="4" t="n">
         <v>17711</v>
@@ -9122,28 +9122,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>11577</v>
+        <v>11585</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>11514</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>11514</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>11514</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J18" s="4" t="n">
         <v>11514</v>
@@ -9224,28 +9224,28 @@
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>1199</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>1199</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>1199</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J21" s="4" t="n">
         <v>1199</v>
@@ -9258,28 +9258,28 @@
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>2845227</v>
+        <v>2846128</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>13269</v>
+        <v>14170</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>13269</v>
+        <v>14170</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>13269</v>
+        <v>14170</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>2831958</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>13269</v>
+        <v>14170</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>2831958</v>
@@ -24028,28 +24028,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C2" t="n">
         <v>60</v>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -24062,28 +24062,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188492.9166666667</v>
+        <v>189387.9166666667</v>
       </c>
       <c r="C3" t="n">
-        <v>36217.50000000015</v>
+        <v>37112.50000000017</v>
       </c>
       <c r="D3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="E3" t="n">
-        <v>36217.50000000015</v>
+        <v>37112.50000000017</v>
       </c>
       <c r="F3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="G3" t="n">
-        <v>36217.50000000015</v>
+        <v>37112.50000000017</v>
       </c>
       <c r="H3" t="n">
         <v>152275.4166666665</v>
       </c>
       <c r="I3" t="n">
-        <v>36217.50000000015</v>
+        <v>37112.50000000017</v>
       </c>
       <c r="J3" t="n">
         <v>152275.4166666665</v>
@@ -24164,28 +24164,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39377</v>
+        <v>39546</v>
       </c>
       <c r="C6" t="n">
-        <v>8017</v>
+        <v>8186</v>
       </c>
       <c r="D6" t="n">
         <v>31360</v>
       </c>
       <c r="E6" t="n">
-        <v>8017</v>
+        <v>8186</v>
       </c>
       <c r="F6" t="n">
         <v>31360</v>
       </c>
       <c r="G6" t="n">
-        <v>8017</v>
+        <v>8186</v>
       </c>
       <c r="H6" t="n">
         <v>31360</v>
       </c>
       <c r="I6" t="n">
-        <v>8017</v>
+        <v>8186</v>
       </c>
       <c r="J6" t="n">
         <v>31360</v>
@@ -24198,28 +24198,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="C7" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D7" t="n">
         <v>950</v>
       </c>
       <c r="E7" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F7" t="n">
         <v>950</v>
       </c>
       <c r="G7" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H7" t="n">
         <v>950</v>
       </c>
       <c r="I7" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J7" t="n">
         <v>950</v>
@@ -24232,28 +24232,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>151</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
         <v>151</v>
       </c>
       <c r="G8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" t="n">
         <v>151</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
         <v>151</v>
@@ -24266,28 +24266,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2113</v>
+        <v>2126</v>
       </c>
       <c r="C9" t="n">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D9" t="n">
         <v>1666</v>
       </c>
       <c r="E9" t="n">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="F9" t="n">
         <v>1666</v>
       </c>
       <c r="G9" t="n">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="H9" t="n">
         <v>1666</v>
       </c>
       <c r="I9" t="n">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="J9" t="n">
         <v>1666</v>
@@ -24300,28 +24300,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C10" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D10" t="n">
         <v>692</v>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>692</v>
       </c>
       <c r="G10" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H10" t="n">
         <v>692</v>
       </c>
       <c r="I10" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J10" t="n">
         <v>692</v>
@@ -24334,28 +24334,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26991</v>
+        <v>27112</v>
       </c>
       <c r="C11" t="n">
-        <v>4889</v>
+        <v>5010</v>
       </c>
       <c r="D11" t="n">
         <v>22102</v>
       </c>
       <c r="E11" t="n">
-        <v>4889</v>
+        <v>5010</v>
       </c>
       <c r="F11" t="n">
         <v>22102</v>
       </c>
       <c r="G11" t="n">
-        <v>4889</v>
+        <v>5010</v>
       </c>
       <c r="H11" t="n">
         <v>22102</v>
       </c>
       <c r="I11" t="n">
-        <v>4889</v>
+        <v>5010</v>
       </c>
       <c r="J11" t="n">
         <v>22102</v>
@@ -24402,28 +24402,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C13" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D13" t="n">
         <v>651</v>
       </c>
       <c r="E13" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F13" t="n">
         <v>651</v>
       </c>
       <c r="G13" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H13" t="n">
         <v>651</v>
       </c>
       <c r="I13" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J13" t="n">
         <v>651</v>
@@ -24436,28 +24436,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1327</v>
+        <v>1337</v>
       </c>
       <c r="C14" t="n">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D14" t="n">
         <v>974</v>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F14" t="n">
         <v>974</v>
       </c>
       <c r="G14" t="n">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H14" t="n">
         <v>974</v>
       </c>
       <c r="I14" t="n">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="J14" t="n">
         <v>974</v>
@@ -24470,28 +24470,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1827</v>
+        <v>1834</v>
       </c>
       <c r="C15" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D15" t="n">
         <v>1508</v>
       </c>
       <c r="E15" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F15" t="n">
         <v>1508</v>
       </c>
       <c r="G15" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H15" t="n">
         <v>1508</v>
       </c>
       <c r="I15" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="J15" t="n">
         <v>1508</v>
@@ -24504,28 +24504,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="C16" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D16" t="n">
         <v>957</v>
       </c>
       <c r="E16" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F16" t="n">
         <v>957</v>
       </c>
       <c r="G16" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H16" t="n">
         <v>957</v>
       </c>
       <c r="I16" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="J16" t="n">
         <v>957</v>
@@ -24538,28 +24538,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C17" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D17" t="n">
         <v>451</v>
       </c>
       <c r="E17" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F17" t="n">
         <v>451</v>
       </c>
       <c r="G17" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H17" t="n">
         <v>451</v>
       </c>
       <c r="I17" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J17" t="n">
         <v>451</v>
@@ -24572,28 +24572,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C18" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D18" t="n">
         <v>348</v>
       </c>
       <c r="E18" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F18" t="n">
         <v>348</v>
       </c>
       <c r="G18" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H18" t="n">
         <v>348</v>
       </c>
       <c r="I18" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J18" t="n">
         <v>348</v>
@@ -24708,28 +24708,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222519</v>
+        <v>223827</v>
       </c>
       <c r="C22" t="n">
-        <v>47238</v>
+        <v>48546</v>
       </c>
       <c r="D22" t="n">
         <v>175281</v>
       </c>
       <c r="E22" t="n">
-        <v>47238</v>
+        <v>48546</v>
       </c>
       <c r="F22" t="n">
         <v>175281</v>
       </c>
       <c r="G22" t="n">
-        <v>47238</v>
+        <v>48546</v>
       </c>
       <c r="H22" t="n">
         <v>175281</v>
       </c>
       <c r="I22" t="n">
-        <v>47238</v>
+        <v>48546</v>
       </c>
       <c r="J22" t="n">
         <v>175281</v>
@@ -24813,28 +24813,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -24847,28 +24847,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196073.7499999997</v>
+        <v>213425.8333333331</v>
       </c>
       <c r="C3" t="n">
-        <v>14382.9166666666</v>
+        <v>31735</v>
       </c>
       <c r="D3" t="n">
         <v>181690.8333333331</v>
       </c>
       <c r="E3" t="n">
-        <v>14382.9166666666</v>
+        <v>31735</v>
       </c>
       <c r="F3" t="n">
         <v>181690.8333333331</v>
       </c>
       <c r="G3" t="n">
-        <v>14382.9166666666</v>
+        <v>31735</v>
       </c>
       <c r="H3" t="n">
         <v>181690.8333333331</v>
       </c>
       <c r="I3" t="n">
-        <v>14382.9166666666</v>
+        <v>31735</v>
       </c>
       <c r="J3" t="n">
         <v>181690.8333333331</v>
@@ -24881,28 +24881,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
         <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>39</v>
@@ -24915,28 +24915,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57070</v>
+        <v>59760</v>
       </c>
       <c r="C5" t="n">
-        <v>830</v>
+        <v>3520</v>
       </c>
       <c r="D5" t="n">
         <v>56240</v>
       </c>
       <c r="E5" t="n">
-        <v>830</v>
+        <v>3520</v>
       </c>
       <c r="F5" t="n">
         <v>56240</v>
       </c>
       <c r="G5" t="n">
-        <v>830</v>
+        <v>3520</v>
       </c>
       <c r="H5" t="n">
         <v>56240</v>
       </c>
       <c r="I5" t="n">
-        <v>830</v>
+        <v>3520</v>
       </c>
       <c r="J5" t="n">
         <v>56240</v>
@@ -24949,28 +24949,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70296</v>
+        <v>75006</v>
       </c>
       <c r="C6" t="n">
-        <v>4667</v>
+        <v>9377</v>
       </c>
       <c r="D6" t="n">
         <v>65629</v>
       </c>
       <c r="E6" t="n">
-        <v>4667</v>
+        <v>9377</v>
       </c>
       <c r="F6" t="n">
         <v>65629</v>
       </c>
       <c r="G6" t="n">
-        <v>4667</v>
+        <v>9377</v>
       </c>
       <c r="H6" t="n">
         <v>65629</v>
       </c>
       <c r="I6" t="n">
-        <v>4667</v>
+        <v>9377</v>
       </c>
       <c r="J6" t="n">
         <v>65629</v>
@@ -24983,28 +24983,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1069</v>
+        <v>1116</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
         <v>1009</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F7" t="n">
         <v>1009</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="H7" t="n">
         <v>1009</v>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J7" t="n">
         <v>1009</v>
@@ -25017,28 +25017,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
         <v>121</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>121</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
         <v>121</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
         <v>121</v>
@@ -25051,28 +25051,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2256</v>
+        <v>2418</v>
       </c>
       <c r="C9" t="n">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="D9" t="n">
         <v>2095</v>
       </c>
       <c r="E9" t="n">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="F9" t="n">
         <v>2095</v>
       </c>
       <c r="G9" t="n">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="H9" t="n">
         <v>2095</v>
       </c>
       <c r="I9" t="n">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="J9" t="n">
         <v>2095</v>
@@ -25085,28 +25085,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>615</v>
+        <v>648</v>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D10" t="n">
         <v>584</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F10" t="n">
         <v>584</v>
       </c>
       <c r="G10" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H10" t="n">
         <v>584</v>
       </c>
       <c r="I10" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J10" t="n">
         <v>584</v>
@@ -25119,28 +25119,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28681</v>
+        <v>30195</v>
       </c>
       <c r="C11" t="n">
-        <v>1474</v>
+        <v>2988</v>
       </c>
       <c r="D11" t="n">
         <v>27207</v>
       </c>
       <c r="E11" t="n">
-        <v>1474</v>
+        <v>2988</v>
       </c>
       <c r="F11" t="n">
         <v>27207</v>
       </c>
       <c r="G11" t="n">
-        <v>1474</v>
+        <v>2988</v>
       </c>
       <c r="H11" t="n">
         <v>27207</v>
       </c>
       <c r="I11" t="n">
-        <v>1474</v>
+        <v>2988</v>
       </c>
       <c r="J11" t="n">
         <v>27207</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -25187,28 +25187,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D13" t="n">
         <v>323</v>
       </c>
       <c r="E13" t="n">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F13" t="n">
         <v>323</v>
       </c>
       <c r="G13" t="n">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="H13" t="n">
         <v>323</v>
       </c>
       <c r="I13" t="n">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="J13" t="n">
         <v>323</v>
@@ -25221,28 +25221,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1641</v>
+        <v>1770</v>
       </c>
       <c r="C14" t="n">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="D14" t="n">
         <v>1511</v>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="F14" t="n">
         <v>1511</v>
       </c>
       <c r="G14" t="n">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="H14" t="n">
         <v>1511</v>
       </c>
       <c r="I14" t="n">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="J14" t="n">
         <v>1511</v>
@@ -25255,28 +25255,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3715</v>
+        <v>3918</v>
       </c>
       <c r="C15" t="n">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="D15" t="n">
         <v>3500</v>
       </c>
       <c r="E15" t="n">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="F15" t="n">
         <v>3500</v>
       </c>
       <c r="G15" t="n">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="H15" t="n">
         <v>3500</v>
       </c>
       <c r="I15" t="n">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="J15" t="n">
         <v>3500</v>
@@ -25289,28 +25289,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1076</v>
+        <v>1204</v>
       </c>
       <c r="C16" t="n">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="D16" t="n">
         <v>958</v>
       </c>
       <c r="E16" t="n">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="F16" t="n">
         <v>958</v>
       </c>
       <c r="G16" t="n">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="H16" t="n">
         <v>958</v>
       </c>
       <c r="I16" t="n">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="J16" t="n">
         <v>958</v>
@@ -25323,28 +25323,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>692</v>
+        <v>765</v>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="D17" t="n">
         <v>637</v>
       </c>
       <c r="E17" t="n">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="F17" t="n">
         <v>637</v>
       </c>
       <c r="G17" t="n">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="H17" t="n">
         <v>637</v>
       </c>
       <c r="I17" t="n">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="J17" t="n">
         <v>637</v>
@@ -25357,28 +25357,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="C18" t="n">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="D18" t="n">
         <v>410</v>
       </c>
       <c r="E18" t="n">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="F18" t="n">
         <v>410</v>
       </c>
       <c r="G18" t="n">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="H18" t="n">
         <v>410</v>
       </c>
       <c r="I18" t="n">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J18" t="n">
         <v>410</v>
@@ -25391,28 +25391,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
         <v>83</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>83</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H19" t="n">
         <v>83</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
         <v>83</v>
@@ -25459,28 +25459,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
         <v>76</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
         <v>76</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H21" t="n">
         <v>76</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
         <v>76</v>
@@ -25493,28 +25493,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140571</v>
+        <v>158828</v>
       </c>
       <c r="C22" t="n">
-        <v>17803</v>
+        <v>36060</v>
       </c>
       <c r="D22" t="n">
         <v>122768</v>
       </c>
       <c r="E22" t="n">
-        <v>17803</v>
+        <v>36060</v>
       </c>
       <c r="F22" t="n">
         <v>122768</v>
       </c>
       <c r="G22" t="n">
-        <v>17803</v>
+        <v>36060</v>
       </c>
       <c r="H22" t="n">
         <v>122768</v>
       </c>
       <c r="I22" t="n">
-        <v>17803</v>
+        <v>36060</v>
       </c>
       <c r="J22" t="n">
         <v>122768</v>
@@ -25610,28 +25610,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>51</v>
@@ -25712,28 +25712,28 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>142523</v>
+        <v>142545</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1211</v>
+        <v>1233</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>141312</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>142523</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3523</v>
+        <v>3545</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>139000</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1211</v>
+        <v>1233</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>141312</v>
@@ -27214,28 +27214,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1673229.999999998</v>
+        <v>1673969.583333331</v>
       </c>
       <c r="C3" t="n">
-        <v>32714.16666666511</v>
+        <v>33453.74999999814</v>
       </c>
       <c r="D3" t="n">
         <v>1640515.833333333</v>
       </c>
       <c r="E3" t="n">
-        <v>32714.16666666511</v>
+        <v>33453.74999999814</v>
       </c>
       <c r="F3" t="n">
         <v>1640515.833333333</v>
       </c>
       <c r="G3" t="n">
-        <v>32714.16666666511</v>
+        <v>33453.74999999814</v>
       </c>
       <c r="H3" t="n">
         <v>1640515.833333333</v>
       </c>
       <c r="I3" t="n">
-        <v>32714.16666666511</v>
+        <v>33453.74999999814</v>
       </c>
       <c r="J3" t="n">
         <v>1640515.833333333</v>
@@ -27282,28 +27282,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>174807</v>
+        <v>174837</v>
       </c>
       <c r="C5" t="n">
-        <v>911</v>
+        <v>941</v>
       </c>
       <c r="D5" t="n">
         <v>173896</v>
       </c>
       <c r="E5" t="n">
-        <v>911</v>
+        <v>941</v>
       </c>
       <c r="F5" t="n">
         <v>173896</v>
       </c>
       <c r="G5" t="n">
-        <v>911</v>
+        <v>941</v>
       </c>
       <c r="H5" t="n">
         <v>173896</v>
       </c>
       <c r="I5" t="n">
-        <v>911</v>
+        <v>941</v>
       </c>
       <c r="J5" t="n">
         <v>173896</v>
@@ -27316,28 +27316,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>627091</v>
+        <v>627196</v>
       </c>
       <c r="C6" t="n">
-        <v>13376</v>
+        <v>13481</v>
       </c>
       <c r="D6" t="n">
         <v>613715</v>
       </c>
       <c r="E6" t="n">
-        <v>13376</v>
+        <v>13481</v>
       </c>
       <c r="F6" t="n">
         <v>613715</v>
       </c>
       <c r="G6" t="n">
-        <v>13376</v>
+        <v>13481</v>
       </c>
       <c r="H6" t="n">
         <v>613715</v>
       </c>
       <c r="I6" t="n">
-        <v>13376</v>
+        <v>13481</v>
       </c>
       <c r="J6" t="n">
         <v>613715</v>
@@ -27350,28 +27350,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8951</v>
+        <v>8953</v>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" t="n">
         <v>8863</v>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" t="n">
         <v>8863</v>
       </c>
       <c r="G7" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
         <v>8863</v>
       </c>
       <c r="I7" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J7" t="n">
         <v>8863</v>
@@ -27384,28 +27384,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>2212</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>2212</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
         <v>2212</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
         <v>2212</v>
@@ -27418,28 +27418,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19508</v>
+        <v>19514</v>
       </c>
       <c r="C9" t="n">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D9" t="n">
         <v>19099</v>
       </c>
       <c r="E9" t="n">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F9" t="n">
         <v>19099</v>
       </c>
       <c r="G9" t="n">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H9" t="n">
         <v>19099</v>
       </c>
       <c r="I9" t="n">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="J9" t="n">
         <v>19099</v>
@@ -27452,28 +27452,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6225</v>
+        <v>6227</v>
       </c>
       <c r="C10" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
         <v>6172</v>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" t="n">
         <v>6172</v>
       </c>
       <c r="G10" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H10" t="n">
         <v>6172</v>
       </c>
       <c r="I10" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J10" t="n">
         <v>6172</v>
@@ -27486,28 +27486,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241356</v>
+        <v>241406</v>
       </c>
       <c r="C11" t="n">
-        <v>4726</v>
+        <v>4776</v>
       </c>
       <c r="D11" t="n">
         <v>236630</v>
       </c>
       <c r="E11" t="n">
-        <v>4726</v>
+        <v>4776</v>
       </c>
       <c r="F11" t="n">
         <v>236630</v>
       </c>
       <c r="G11" t="n">
-        <v>4726</v>
+        <v>4776</v>
       </c>
       <c r="H11" t="n">
         <v>236630</v>
       </c>
       <c r="I11" t="n">
-        <v>4726</v>
+        <v>4776</v>
       </c>
       <c r="J11" t="n">
         <v>236630</v>
@@ -27554,28 +27554,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6379</v>
+        <v>6380</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="n">
         <v>6312</v>
       </c>
       <c r="E13" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" t="n">
         <v>6312</v>
       </c>
       <c r="G13" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" t="n">
         <v>6312</v>
       </c>
       <c r="I13" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J13" t="n">
         <v>6312</v>
@@ -27588,28 +27588,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13258</v>
+        <v>13262</v>
       </c>
       <c r="C14" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D14" t="n">
         <v>12903</v>
       </c>
       <c r="E14" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F14" t="n">
         <v>12903</v>
       </c>
       <c r="G14" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H14" t="n">
         <v>12903</v>
       </c>
       <c r="I14" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="J14" t="n">
         <v>12903</v>
@@ -27622,28 +27622,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29303</v>
+        <v>29305</v>
       </c>
       <c r="C15" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D15" t="n">
         <v>28641</v>
       </c>
       <c r="E15" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F15" t="n">
         <v>28641</v>
       </c>
       <c r="G15" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H15" t="n">
         <v>28641</v>
       </c>
       <c r="I15" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="J15" t="n">
         <v>28641</v>
@@ -27656,28 +27656,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20176</v>
+        <v>20177</v>
       </c>
       <c r="C16" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D16" t="n">
         <v>19736</v>
       </c>
       <c r="E16" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F16" t="n">
         <v>19736</v>
       </c>
       <c r="G16" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H16" t="n">
         <v>19736</v>
       </c>
       <c r="I16" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J16" t="n">
         <v>19736</v>
@@ -27826,28 +27826,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
         <v>1026</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
         <v>1026</v>
       </c>
       <c r="G21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" t="n">
         <v>1026</v>
       </c>
       <c r="I21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
         <v>1026</v>
@@ -27860,28 +27860,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1943986</v>
+        <v>1944513</v>
       </c>
       <c r="C22" t="n">
-        <v>40054</v>
+        <v>40581</v>
       </c>
       <c r="D22" t="n">
         <v>1903932</v>
       </c>
       <c r="E22" t="n">
-        <v>40054</v>
+        <v>40581</v>
       </c>
       <c r="F22" t="n">
         <v>1903932</v>
       </c>
       <c r="G22" t="n">
-        <v>40054</v>
+        <v>40581</v>
       </c>
       <c r="H22" t="n">
         <v>1903932</v>
       </c>
       <c r="I22" t="n">
-        <v>40054</v>
+        <v>40581</v>
       </c>
       <c r="J22" t="n">
         <v>1903932</v>
@@ -29283,28 +29283,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -29317,28 +29317,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19791.66666666666</v>
+        <v>20127.49999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>335.8333333333285</v>
       </c>
       <c r="D3" t="n">
         <v>19791.66666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>335.8333333333285</v>
       </c>
       <c r="F3" t="n">
         <v>19791.66666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>335.8333333333285</v>
       </c>
       <c r="H3" t="n">
         <v>19791.66666666666</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>335.8333333333285</v>
       </c>
       <c r="J3" t="n">
         <v>19791.66666666666</v>
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
@@ -29419,28 +29419,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3131</v>
+        <v>3214</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
         <v>3131</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="F6" t="n">
         <v>3131</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H6" t="n">
         <v>3131</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J6" t="n">
         <v>3131</v>
@@ -29453,28 +29453,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>195</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>195</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>195</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>195</v>
@@ -29487,28 +29487,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>36</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>36</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>36</v>
@@ -29521,28 +29521,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>282</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>282</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>282</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>282</v>
@@ -29555,28 +29555,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>100</v>
@@ -29589,28 +29589,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2389</v>
+        <v>2437</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D11" t="n">
         <v>2389</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
         <v>2389</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H11" t="n">
         <v>2389</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J11" t="n">
         <v>2389</v>
@@ -29623,28 +29623,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>151</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>151</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>151</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>151</v>
@@ -29657,28 +29657,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>182</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>182</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>182</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>182</v>
@@ -29691,28 +29691,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>129</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>129</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>129</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>129</v>
@@ -29725,28 +29725,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>94</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>94</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>94</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>94</v>
@@ -29759,28 +29759,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>47</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>47</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>47</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>47</v>
@@ -29861,28 +29861,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -29895,28 +29895,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30508</v>
+        <v>31074</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="D20" t="n">
         <v>30508</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="F20" t="n">
         <v>30508</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="H20" t="n">
         <v>30508</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="J20" t="n">
         <v>30508</v>
